--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <r>
       <rPr>
@@ -1915,6 +1915,9 @@
   </si>
   <si>
     <t>sort</t>
+  </si>
+  <si>
+    <t>type_sequence</t>
   </si>
   <si>
     <t>fd_report-8</t>
@@ -2084,12 +2087,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2118,6 +2121,12 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2159,6 +2168,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2173,29 +2218,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2225,22 +2271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2258,7 +2288,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2267,35 +2305,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2385,7 +2394,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2397,175 +2568,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,11 +2683,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2687,7 +2694,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2707,15 +2714,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2731,6 +2729,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2742,15 +2760,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2772,159 +2781,160 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2932,44 +2942,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2982,7 +2992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3385,8 +3395,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
     <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
@@ -3402,79 +3412,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="11"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3482,56 +3492,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3541,30 +3551,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3572,7 +3582,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -3580,25 +3590,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3621,10 +3631,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3663,7 +3673,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3697,344 +3707,374 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="5:11">
+      <c r="L7" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="5:12">
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K8" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="5:11">
+      <c r="L8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="5:12">
       <c r="E9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K9" s="5">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="5:11">
+      <c r="L9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12">
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" s="5">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="5:11">
+      <c r="L10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12">
       <c r="E11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" s="5">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="5:11">
+      <c r="L11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12">
       <c r="E12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="5:11">
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12">
       <c r="E13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="5:11">
+      <c r="L13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12">
       <c r="E14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="5:11">
+      <c r="L14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12">
       <c r="E15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K15" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="5:11">
+      <c r="L15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12">
       <c r="E16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="5">
         <v>90</v>
       </c>
+      <c r="L16">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ref="F20:F28" si="0">E8</f>
         <v>fd_report-8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-10</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-11</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\agile-service-new\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F978AF-BBDB-4FC3-A65B-43EB8AF2064D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -28,6 +34,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -1932,9 +2044,6 @@
     <t>燃尽图</t>
   </si>
   <si>
-    <t>跟踪记录所有问题的剩余工作工作时间，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
-  </si>
-  <si>
     <t>/agile/reporthost/burndownchart</t>
   </si>
   <si>
@@ -2080,19 +2189,17 @@
   </si>
   <si>
     <t>N_AGILE</t>
+  </si>
+  <si>
+    <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2103,31 +2210,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF222222"/>
       <name val="Open Sans"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2167,157 +2274,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2346,12 +2302,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2360,8 +2318,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2392,194 +2385,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2680,254 +2487,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2942,20 +2507,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2989,9 +2542,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2999,59 +2549,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3124,6 +2643,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3381,274 +2903,271 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.5851851851852" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
-    <col min="4" max="4" width="35.3333333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
-    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
-    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.0703125" customWidth="1"/>
+    <col min="4" max="4" width="35.35546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
-    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
-    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
-    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="19.0703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.0703125" customWidth="1"/>
+    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="49.5">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="49.5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="66">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="33">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="49.5">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="29.4148148148148" customWidth="1"/>
-    <col min="5" max="5" width="18.3333333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.9111111111111" customWidth="1"/>
-    <col min="7" max="7" width="21.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.35546875" customWidth="1"/>
+    <col min="6" max="6" width="12.92578125" customWidth="1"/>
+    <col min="7" max="7" width="21.35546875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="21.0814814814815" customWidth="1"/>
+    <col min="9" max="9" width="81.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3662,7 +3181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:12">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3711,7 +3230,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="5:12">
+    <row r="8" spans="1:12">
       <c r="E8" t="s">
         <v>62</v>
       </c>
@@ -3724,11 +3243,11 @@
       <c r="H8" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" t="s">
         <v>66</v>
-      </c>
-      <c r="J8" t="s">
-        <v>67</v>
       </c>
       <c r="K8" s="5">
         <v>10</v>
@@ -3737,24 +3256,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="5:12">
+    <row r="9" spans="1:12">
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" t="s">
         <v>71</v>
-      </c>
-      <c r="J9" t="s">
-        <v>72</v>
       </c>
       <c r="K9" s="5">
         <v>20</v>
@@ -3763,24 +3282,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="5:12">
+    <row r="10" spans="1:12">
       <c r="E10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" t="s">
         <v>76</v>
-      </c>
-      <c r="J10" t="s">
-        <v>77</v>
       </c>
       <c r="K10" s="5">
         <v>30</v>
@@ -3789,24 +3308,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="5:12">
+    <row r="11" spans="1:12">
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>63</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
         <v>79</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" t="s">
         <v>81</v>
-      </c>
-      <c r="J11" t="s">
-        <v>82</v>
       </c>
       <c r="K11" s="5">
         <v>40</v>
@@ -3815,24 +3334,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="5:12">
+    <row r="12" spans="1:12">
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" t="s">
         <v>86</v>
-      </c>
-      <c r="J12" t="s">
-        <v>87</v>
       </c>
       <c r="K12" s="5">
         <v>50</v>
@@ -3841,24 +3360,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="5:12">
+    <row r="13" spans="1:12">
       <c r="E13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
         <v>63</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
         <v>89</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" t="s">
         <v>91</v>
-      </c>
-      <c r="J13" t="s">
-        <v>92</v>
       </c>
       <c r="K13" s="5">
         <v>60</v>
@@ -3867,24 +3386,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="5:12">
+    <row r="14" spans="1:12">
       <c r="E14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F14" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
         <v>94</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" t="s">
         <v>96</v>
-      </c>
-      <c r="J14" t="s">
-        <v>97</v>
       </c>
       <c r="K14" s="5">
         <v>70</v>
@@ -3893,24 +3412,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="5:12">
+    <row r="15" spans="1:12">
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
         <v>99</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
         <v>101</v>
-      </c>
-      <c r="J15" t="s">
-        <v>102</v>
       </c>
       <c r="K15" s="5">
         <v>80</v>
@@ -3919,24 +3438,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="5:12">
+    <row r="16" spans="1:12">
       <c r="E16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F16" t="s">
         <v>63</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H16" t="s">
         <v>104</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" t="s">
         <v>106</v>
-      </c>
-      <c r="J16" t="s">
-        <v>107</v>
       </c>
       <c r="K16" s="5">
         <v>90</v>
@@ -3947,139 +3466,139 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="E20" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ref="F20:F28" si="0">E8</f>
         <v>fd_report-8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="E21" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="E22" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-10</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="E23" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-11</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="E24" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="E25" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="E26" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="E27" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="E28" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\agile-service-new\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F978AF-BBDB-4FC3-A65B-43EB8AF2064D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -53,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -66,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -85,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -104,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -123,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -155,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -174,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -193,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -215,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -236,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -257,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -278,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -299,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -311,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -330,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -342,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -361,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -380,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -399,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -418,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -466,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -485,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -504,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -523,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -535,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -554,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -573,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -593,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -612,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -632,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -651,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -663,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -682,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -701,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -725,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -744,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -763,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -782,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -801,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -813,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -832,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -843,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -864,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -875,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -894,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -913,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -937,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -956,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -976,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -996,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1016,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1037,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1057,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1092,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1113,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1125,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1144,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1165,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1184,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1197,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1216,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1235,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1254,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1269,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1288,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1307,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1326,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1345,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1361,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1371,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1390,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1406,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1416,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1435,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1450,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1488,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1508,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1532,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1551,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1570,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1590,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1611,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1622,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1632,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1644,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1663,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1682,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1701,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1721,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1740,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1759,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1779,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1798,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1817,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1836,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1856,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1868,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1879,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1889,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1901,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1920,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1932,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1951,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1971,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2032,6 +1920,9 @@
     <t>type_sequence</t>
   </si>
   <si>
+    <t>module</t>
+  </si>
+  <si>
     <t>fd_report-8</t>
   </si>
   <si>
@@ -2044,9 +1935,15 @@
     <t>燃尽图</t>
   </si>
   <si>
+    <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
+  </si>
+  <si>
     <t>/agile/reporthost/burndownchart</t>
   </si>
   <si>
+    <t>agile</t>
+  </si>
+  <si>
     <t>fd_report-9</t>
   </si>
   <si>
@@ -2189,17 +2086,19 @@
   </si>
   <si>
     <t>N_AGILE</t>
-  </si>
-  <si>
-    <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2210,31 +2109,37 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF222222"/>
       <name val="Open Sans"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2274,6 +2179,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2289,6 +2351,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2302,14 +2371,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2318,43 +2391,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2385,8 +2423,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2487,10 +2711,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2500,6 +2966,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2507,32 +2974,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2542,35 +3021,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2643,9 +3156,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2903,271 +3413,274 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.35546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0703125" customWidth="1"/>
-    <col min="4" max="4" width="35.35546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3555555555556" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.0666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.3555555555556" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.0703125" customWidth="1"/>
-    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
+    <col min="11" max="11" width="19.0666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.0666666666667" customWidth="1"/>
+    <col min="14" max="1025" width="10.3555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="C1" s="32" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="33" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="35" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="15" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="49.5">
-      <c r="C9" s="21" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66">
-      <c r="C11" s="18" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="33">
-      <c r="C15" s="26" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="29" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="29" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="29" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="29" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="30" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="19" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="3:5" ht="49.5">
-      <c r="C27" s="31" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.35546875" customWidth="1"/>
-    <col min="6" max="6" width="12.92578125" customWidth="1"/>
-    <col min="7" max="7" width="21.35546875" customWidth="1"/>
+    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="29.4222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.3555555555556" customWidth="1"/>
+    <col min="6" max="6" width="12.9259259259259" customWidth="1"/>
+    <col min="7" max="7" width="21.3555555555556" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="81.35546875" customWidth="1"/>
+    <col min="9" max="9" width="81.3555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3181,7 +3694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3192,7 +3705,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3229,25 +3742,28 @@
       <c r="L7" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>115</v>
+        <v>66</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K8" s="5">
         <v>10</v>
@@ -3255,25 +3771,28 @@
       <c r="L8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
       <c r="E9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K9" s="5">
         <v>20</v>
@@ -3281,25 +3800,28 @@
       <c r="L9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
       <c r="E10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K10" s="5">
         <v>30</v>
@@ -3307,25 +3829,28 @@
       <c r="L10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
       <c r="E11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K11" s="5">
         <v>40</v>
@@ -3333,25 +3858,28 @@
       <c r="L11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
       <c r="E12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K12" s="5">
         <v>50</v>
@@ -3359,25 +3887,28 @@
       <c r="L12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
       <c r="E13" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K13" s="5">
         <v>60</v>
@@ -3385,25 +3916,28 @@
       <c r="L13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
       <c r="E14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K14" s="5">
         <v>70</v>
@@ -3411,25 +3945,28 @@
       <c r="L14">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13">
       <c r="E15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K15" s="5">
         <v>80</v>
@@ -3437,25 +3974,28 @@
       <c r="L15">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13">
       <c r="E16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K16" s="5">
         <v>90</v>
@@ -3463,142 +4003,145 @@
       <c r="L16">
         <v>20</v>
       </c>
+      <c r="M16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="5:7">
       <c r="E20" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ref="F20:F28" si="0">E8</f>
         <v>fd_report-8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
       <c r="E21" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
       <c r="E22" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-10</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
       <c r="E23" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-11</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
       <c r="E24" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
       <c r="E25" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
       <c r="E26" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
       <c r="E27" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
       <c r="E28" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1938,7 +1938,7 @@
     <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
   </si>
   <si>
-    <t>/agile/reporthost/burndownchart</t>
+    <t>/agile/charts/burndownchart</t>
   </si>
   <si>
     <t>agile</t>
@@ -1956,7 +1956,7 @@
     <t>了解每个冲刺中完成、进行和退回待办的工作。这有助于您确定团队的工作量是否超额。</t>
   </si>
   <si>
-    <t>/agile/reporthost/sprintReport</t>
+    <t>/agile/charts/sprintReport</t>
   </si>
   <si>
     <t>fd_report-10</t>
@@ -1971,7 +1971,7 @@
     <t>显示状态的问题，这有助于您识别潜在的瓶颈， 需要对此进行调查。</t>
   </si>
   <si>
-    <t>/agile/reporthost/accumulation</t>
+    <t>/agile/charts/accumulation</t>
   </si>
   <si>
     <t>fd_report-11</t>
@@ -1986,7 +1986,7 @@
     <t>跟踪对应的版本发布日期，这有助于您监控此版本是否按时发布，以便工作滞后时能采取行动。</t>
   </si>
   <si>
-    <t>/agile/reporthost/versionReport</t>
+    <t>/agile/charts/versionReport</t>
   </si>
   <si>
     <t>fd_report-12</t>
@@ -2001,7 +2001,7 @@
     <t>跟踪各个迭代已完成的工时量。这有助于您确定团队的开发速度并预估在未来迭代中能完成的工作量。</t>
   </si>
   <si>
-    <t>/agile/reporthost/velocityChart</t>
+    <t>/agile/charts/velocityChart</t>
   </si>
   <si>
     <t>fd_report-13</t>
@@ -2016,7 +2016,7 @@
     <t>随时了解一个史诗的完成进度。这有助于您跟踪未完成或未分配问题来管理团队的开发进度。</t>
   </si>
   <si>
-    <t>/agile/reporthost/EpicReport</t>
+    <t>/agile/charts/EpicReport</t>
   </si>
   <si>
     <t>fd_report-14</t>
@@ -2031,7 +2031,7 @@
     <t>根据指定字段以统计图呈现项目或筛选器下的问题。这可以使您一目了然地了解问题详情。</t>
   </si>
   <si>
-    <t>/agile/reporthost/pieReport</t>
+    <t>/agile/charts/pieReport</t>
   </si>
   <si>
     <t>fd_report-15</t>
@@ -2046,7 +2046,7 @@
     <t>跟踪史诗完成速度预计所需冲刺数。这有助于您监控史诗能否按时发布，以便在工作落后时采取行动。</t>
   </si>
   <si>
-    <t>/agile/reporthost/epicBurndown</t>
+    <t>/agile/charts/epicBurndown</t>
   </si>
   <si>
     <t>fd_report-16</t>
@@ -2061,7 +2061,7 @@
     <t>跟踪版本完成速度预计发布日期。这有助于您监控版本能否按时发布，以便在工作落后时采取行动。</t>
   </si>
   <si>
-    <t>/agile/reporthost/versionBurndown</t>
+    <t>/agile/charts/versionBurndown</t>
   </si>
   <si>
     <t>2020-05-29</t>
@@ -2093,12 +2093,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2133,12 +2133,6 @@
       <sz val="9.75"/>
       <color rgb="FF222222"/>
       <name val="Open Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2179,6 +2173,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2188,21 +2198,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2232,24 +2227,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2261,25 +2242,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2297,43 +2322,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2357,13 +2345,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2376,12 +2357,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2425,7 +2400,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,13 +2442,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2461,13 +2478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2479,37 +2508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2527,49 +2532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2587,13 +2562,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2712,6 +2687,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2736,15 +2750,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2760,17 +2765,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2783,182 +2784,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2966,7 +2941,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2974,44 +2948,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3024,7 +2998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3427,8 +3401,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3555555555556" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3555555555556" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.0666666666667" customWidth="1"/>
     <col min="4" max="4" width="35.3555555555556" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
@@ -3444,79 +3418,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3524,56 +3498,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3583,30 +3557,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3614,7 +3588,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -3622,25 +3596,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3666,7 +3640,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3678,6 +3652,7 @@
     <col min="7" max="7" width="21.3555555555556" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="81.3555555555556" customWidth="1"/>
+    <col min="10" max="10" width="45.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3759,7 +3734,7 @@
       <c r="H8" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="5" t="s">
         <v>67</v>
       </c>
       <c r="J8" t="s">

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\agile-service-new\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6AD20-6E62-4C0D-A149-4F85135B880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -28,6 +34,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -46,6 +53,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -58,6 +66,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -76,6 +85,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -94,6 +104,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -112,6 +123,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -143,6 +155,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -161,6 +174,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -179,6 +193,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -200,6 +215,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -220,6 +236,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -240,6 +257,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -260,6 +278,7 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -280,6 +299,7 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -291,6 +311,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -309,6 +330,7 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -320,6 +342,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -338,6 +361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -356,6 +380,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -374,6 +399,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -392,6 +418,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -439,6 +466,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -457,6 +485,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -475,6 +504,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -493,6 +523,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -504,6 +535,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -522,6 +554,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -540,6 +573,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -559,6 +593,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -577,6 +612,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -596,6 +632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -614,6 +651,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -625,6 +663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -643,6 +682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -661,6 +701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -684,6 +725,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -702,6 +744,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -720,6 +763,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -738,6 +782,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -756,6 +801,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -767,6 +813,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -785,6 +832,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -795,6 +843,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -815,6 +864,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -825,6 +875,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -843,6 +894,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -861,6 +913,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -884,6 +937,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -902,6 +956,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -921,6 +976,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -940,6 +996,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -959,6 +1016,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -979,6 +1037,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -998,6 +1057,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1032,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1052,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1063,6 +1125,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1081,6 +1144,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1101,6 +1165,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1119,6 +1184,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1131,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1149,6 +1216,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1167,6 +1235,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1185,6 +1254,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1199,6 +1269,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1217,6 +1288,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1235,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1253,6 +1326,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1271,6 +1345,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1286,6 +1361,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1295,6 +1371,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1313,6 +1390,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1328,6 +1406,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1337,6 +1416,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1355,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1369,6 +1450,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1387,6 +1469,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1405,6 +1488,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1424,6 +1508,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1447,6 +1532,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1465,6 +1551,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1483,6 +1570,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1502,6 +1590,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1522,6 +1611,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1532,6 +1622,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1541,6 +1632,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1552,6 +1644,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1570,6 +1663,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1588,6 +1682,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1606,6 +1701,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1625,6 +1721,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1643,6 +1740,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1661,6 +1759,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1680,6 +1779,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1698,6 +1798,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1716,6 +1817,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1734,6 +1836,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1753,6 +1856,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1764,6 +1868,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1774,6 +1879,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1783,6 +1889,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1794,6 +1901,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1812,6 +1920,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1823,6 +1932,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1841,6 +1951,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1860,6 +1971,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2022,9 +2134,6 @@
     <t>fd_report-14</t>
   </si>
   <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjExNHB4IiBoZWlnaHQ9IjExM3B4IiB2aWV3Qm94PSIwIDAgMTE0IDExMyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA1PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+CiAgICAgICAgPHBhdGggZD0iTTguMzIwMTI0NDgsNDguMzQyNDI3NCBDMjMuOTAxNTk4MSw0OC4zNDI0Mjc0IDM4LjAwNzk3NSw1NC42MzQwNjkgNDguMjE4OTgzNCw2NC44MDYyNzczIEw4LjMyMDEyNDQ4LDEwNC41NTM1MjcgTDguMzIwMTI0NDgsNDguMzQyNDI3NCBaIiBpZD0icGF0aC0xIj48L3BhdGg+CiAgICAgICAgPHBhdGggZD0iTTguMzc2NTU2MDIsOC4zNzY1NTYwMiBDMjMuOTU4MDI5Niw4LjM3NjU1NjAyIDM4LjA2NDQwNjUsMTQuNjY4MTk3NiA0OC4yNzU0MTQ5LDI0Ljg0MDQwNTkgTDguMzc2NTU2MDIsNjQuNTg3NjU1NiBMOC4zNzY1NTYwMiw4LjM3NjU1NjAyIFoiIGlkPSJwYXRoLTIiPjwvcGF0aD4KICAgICAgICA8cGF0aCBkPSJNMTYuOTI5NDYwNiw1LjY4NDM0MTg5ZS0xNCBDMzIuNDc4ODQ4MSwxLjM4NTY2MTgyZS0xMyA0Ni41NTYxNzY1LDYuMzA1MzQ4OTEgNTYuNzQ2MTU4LDE2LjQ5OTcxODggTDE2LjkyOTQ2MDYsNTYuMzMzNTYzOSBMMTYuOTI5NDYwNiw1LjY4NDM0MTg5ZS0xNCBaIiBpZD0icGF0aC0zIj48L3BhdGg+CiAgICAgICAgPHBhdGggZD0iTTU2LjcxMzY5MjksMCBDODcuODc5OTY5MywwIDExMy4xNDUyMjgsMjUuMjY1MjU4OSAxMTMuMTQ1MjI4LDU2LjQzMTUzNTMgQzExMy4xNDUyMjgsNzEuOTQyOTEzNiAxMDYuODg2OTUyLDg1Ljk5MjU5MzQgOTYuNzU3NjQ1Miw5Ni4xOTMzMjk5IEw1Ni45OTU4NTA2LDU2LjQzMTUzNTMgTDU2LjcxMzY5MjksNTYuNDMxNTM1MyBMNTYuNzEzNjkyOSw1LjAyNDI5NTg3ZS0xNSBaIiBpZD0icGF0aC00Ij48L3BhdGg+CiAgICAgICAgPHBhdGggZD0iTTI4LjQ5NzkyNTMsNjcuNzE3ODQyMyBDNTkuNjY0MjAxNiw2Ny43MTc4NDIzIDg0LjkyOTQ2MDYsOTIuOTgzMTAxMyA4NC45Mjk0NjA2LDEyNC4xNDkzNzggTDI4LjQ5NzkyNTMsMTI0LjE0OTM3OCBMMjguNDk3OTI1Myw2Ny43MTc4NDIzIFoiIGlkPSJwYXRoLTUiPjwvcGF0aD4KICAgIDwvZGVmcz4KICAgIDxnIGlkPSLmiqXlkYoiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXlkYrvvI3miYDmnInmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC0zNTcuMDAwMDAwLCAtOTEzLjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoODMuMDAwMDAwLCA3ODEuMDAwMDAwKSIgaWQ9IkNvbWJpbmVkLVNoYXBlIj4KICAgICAgICAgICAgICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyOC4yNjk1NTQsIDc2LjQ0Nzk3Nykgc2NhbGUoLTEsIDEpIHJvdGF0ZSgtMjcwLjAwMDAwMCkgdHJhbnNsYXRlKC0yOC4yNjk1NTQsIC03Ni40NDc5NzcpICI+CiAgICAgICAgICAgICAgICAgICAgICAgIDx1c2UgZmlsbD0iI0ZBRDM1MiIgZmlsbC1ydWxlPSJldmVub2RkIiB4bGluazpocmVmPSIjcGF0aC0xIj48L3VzZT4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggc3Ryb2tlPSIjRkZGRkZGIiBzdHJva2Utd2lkdGg9IjEiIGQ9Ik04LjgyMDEyNDQ4LDQ4Ljg0NDYxMDEgTDguODIwMTI0NDgsMTAzLjM0OTY2MiBMNDcuNTA4OTUyMSw2NC44MDc4NDYgQzM3LjI0MTEyNTksNTQuNzU5MDc3NyAyMy40OTY2MDI4LDQ4Ljk3MzE5NDIgOC44MjAxMjQ1LDQ4Ljg0NDYxNyBaIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI4LjMyNTk4NSwgMzYuNDgyMTA2KSBzY2FsZSgtMSwgLTEpIHJvdGF0ZSgtMjcwLjAwMDAwMCkgdHJhbnNsYXRlKC0yOC4zMjU5ODUsIC0zNi40ODIxMDYpICI+CiAgICAgICAgICAgICAgICAgICAgICAgIDx1c2UgZmlsbD0iIzQ1QTNGQyIgZmlsbC1ydWxlPSJldmVub2RkIiB4bGluazpocmVmPSIjcGF0aC0yIj48L3VzZT4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggc3Ryb2tlPSIjRkZGRkZGIiBzdHJva2Utd2lkdGg9IjEiIGQ9Ik04Ljg3NjU1NjAyLDguODc4NzM4NjggTDguODc2NTU2MDIsNjMuMzgzNzkwOSBMNDcuNTY1MzgzNiwyNC44NDE5NzQ2IEMzNy4yOTc1NTc1LDE0Ljc5MzIwNjMgMjMuNTUzMDM0NCw5LjAwNzMyMjg2IDguODc2NTU2MDMsOC44Nzg3NDU2NyBaIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDM2LjgzNzgwOSwgMjguMTY2NzgyKSBzY2FsZSgtMSwgMSkgdHJhbnNsYXRlKC0zNi44Mzc4MDksIC0yOC4xNjY3ODIpICI+CiAgICAgICAgICAgICAgICAgICAgICAgIDx1c2UgZmlsbD0iIzU2Q0E3NyIgZmlsbC1ydWxlPSJldmVub2RkIiB4bGluazpocmVmPSIjcGF0aC0zIj48L3VzZT4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggc3Ryb2tlPSIjRkZGRkZGIiBzdHJva2Utd2lkdGg9IjEiIGQ9Ik0xNy40Mjk0NjA2LDAuNTAyMTk2NTg5IEwxNy40Mjk0NjA2LDU1LjEyNjA4OTUgTDU2LjAzNzY0MTksMTYuNTAxMjgxIEM0NS43OTEyNDYsNi40MzAxMjgwNCAzMi4wNzUzNCwwLjYzMTMzMTE3OCAxNy40Mjk0NjA2LDAuNTAyMjAzNjE1IFoiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPGc+CiAgICAgICAgICAgICAgICAgICAgICAgIDx1c2UgZmlsbD0iIzk2NjVFMiIgZmlsbC1ydWxlPSJldmVub2RkIiB4bGluazpocmVmPSIjcGF0aC00Ij48L3VzZT4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggc3Ryb2tlPSIjRkZGRkZGIiBzdHJva2Utd2lkdGg9IjEiIGQ9Ik01Ny4yMTM2OTI5LDAuNTAyMTg4NDI3IEw1Ny4yMTM2OTI5LDU1Ljk0MjI3MDggTDk2Ljc1NDgzMzEsOTUuNDgzNDExIEMxMDYuODczOTUsODUuMTEwNzUxMSAxMTIuNjQ1MjI4LDcxLjIyODE3NiAxMTIuNjQ1MjI4LDU2LjQzMTUzNTMgQzExMi42NDUyMjgsMjUuNzA4MjM5NiA4Ny44NzM1OTQ3LDAuNzcwNjY4OTI0IDU3LjIxMzY5MjksMC41MDIxODg0MjcgWiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8ZyB0cmFuc2Zvcm09InRyYW5zbGF0ZSg1Ni43MTM2OTMsIDk1LjkzMzYxMCkgcm90YXRlKDEzNS4wMDAwMDApIHRyYW5zbGF0ZSgtNTYuNzEzNjkzLCAtOTUuOTMzNjEwKSAiPgogICAgICAgICAgICAgICAgICAgICAgICA8dXNlIGZpbGw9IiNGNzY2N0YiIGZpbGwtcnVsZT0iZXZlbm9kZCIgeGxpbms6aHJlZj0iI3BhdGgtNSI+PC91c2U+CiAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIHN0cm9rZT0iI0ZGRkZGRiIgc3Ryb2tlLXdpZHRoPSIxIiBkPSJNMjguOTk3OTI1Myw2OC4yMjAwMzA4IEwyOC45OTc5MjUzLDEyMy42NDkzNzggTDg0LjQyNzI3MjIsMTIzLjY0OTM3OCBDODQuMTYwMjQ5Niw5My4xNTU5Njk4IDU5LjQ5MTMzMzEsNjguNDg3MDUzMyAyOC45OTc5MjUzLDY4LjIyMDAzMDggWiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
-  </si>
-  <si>
     <t>统计图</t>
   </si>
   <si>
@@ -2086,19 +2195,17 @@
   </si>
   <si>
     <t>N_AGILE</t>
+  </si>
+  <si>
+    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAH4AAAB+CAYAAADiI6WIAAAABGdBTUEAALGPC/xhBQAAACBjSFJNAAB6JgAAgIQAAPoAAACA6AAAdTAAAOpgAAA6mAAAF3CculE8AAAABmJLR0QA/wD/AP+gvaeTAAAACXBIWXMAAABgAAAAYADwa0LPAAAS8UlEQVR42u2dd3hUZb7HP2dmMukJqZBACB0CCgtSVjqK0hQRFXSlyCp79/Hu3V0fvZa9j2V1rWtZ9+qqz+qqXLEAXhW4lrUXBAuuoHTS+6RMpiSZzMw55/7xJmZC6mTKmZnk8zwDM5Mz5/ze8z1v+72/930lVVVVBhlw6LQ2ICCoCiiyT6eQFYjkHGHQ2gCfUWSQdCBJ4nOjGSqPgKUSbNVgqRL/N5rB2SiOaWmEra9h1mXx5G7xVXQUxMdAQiwkx0NaEqQnw9AUSEnwuJwKOknrRPtO+AmvqoAqxJadUPg1lH4PVceg8hjYa/p8HresUlzdu4qxRshOh5GZMDYLJoyAlETxt3B9EMJHeFURYteXwKlPIX8fFB8Ed0vAL93shPwK8fr4e/FdWhKcNQqmtL6MhvB6CEJb+Daxm8xweA8c2g3VJ7S2CoA6K3x6WLyio2DGeDh3MuSNbDVdba99QpHQFF5VAAlOfQ7f7YTTX/jcWAskLS7Yf1S8UhJhziSYdxYMSwndUiC0hFcVkVV+fBv2/QNqTmttkdeYbfDuN+I1bjismQsTc0LvAQgN4dty83c7Yd/zYKnQ2iK/cLocHt4pGoMXzYG8XFAU0IVAJ1pb4RUZdHooPADvPQS1BVrfj4BwsgweLYPRw2DtApiUo/0DoK3wlgp470E4+ammZgSLwip4ZCdMGwMblgp/gVYNwOALryoitV+/DO8/KvriA4xDBXDyBbhkLiyZLr4Ldv0ffOEtlfDGrcLpMoBpdsKrn8C+I7BlOeRkBPf6Qapl2rzeCrz/yIAX3ZPSGrjvZfjwX+JzsIbMgiC8DKoLyh4AtxXW3AvRicFJXZjgluHVj+HpvcInoARB/AALr4DTBCd+ATUvQfEfICoGNj8X+JSFIQdPwl3boKQ68NcKrPC2A3D8cmg+Lj5bPwPTSzAsDxb/e+BTF4bUWeGhHfDdqcBeJ3DC1++F/OtBtnT8vuIxaD4BC66DrLzApi5Mcbnhmb1iHCBQBEb4mu2iWFfdnf+mOqHwBlHvb3oOdKHhPAw1FBVe+gD2HgjM+f0ovCqapBWPQ9n9gNL9oS0lUHafaORd+d+BSVmE8NaXsP1D8d6fbT4/Ci9BxSNQ/fe+HV73BpjfhXHzYPpaPyYp8vjkkMj9/vTx+E/4qmfA9IJ3vym9C5xVsPK/IGmoH5MVeXx6GPbs99/5/CN87atQ2Y8iW7ZD0U2int+yzX+pilB272939PiKj8KrYH4HSu/r/ykaD0HVE5CcDavu9N9dilB2fCK6er56+PovvKqAIx9KbqfHhlxfqHoW7N/AjLUwdp7fb1Ykoajw97eh2OSbh69/wqsyKE1Q8BtQHP5IDhTdArIN1j0GxrjA3LUIwS3DU7vB4RTj+v2hf8JLkuiLt5T5LzUukyg9omJE/36QHqm3wXPv9H88v3/CV/4NbH5sYrZh+QhqXoXsKbDg3/x//gjjcAF81M/GnnfCqwo0HYfqZwOXmvI/i7bD4l/D0AmBu06EsOtzKK72vr73QngVUKD4tq5dsf5CdULhjaIdsfFZ70wcgLhl0djztpXvxV2VoPKv4AjwsBGIHF/+IMSlwPq/BP56YU61Gd4/6N1v+ia8KouhVW89c75QuwMaPoCJi2Hq6uBdN0zZs180+Prayu+b8JJeRNCoPvbXvaXkdhHIcfGdkBDkoLQww+mG1z7pe8h274epMlg+BPu3wU+NbIPim0FvgGueD/71w4zvTsEPhX2r73sXXgLKH9EuNfaDUPU0pObCij9oZ0eYsOuzvvXtexFeFf3qlhJtU1P1NNj/BTPXwag52toS4lTUwff5vXfvehZeVcD0otZpEXYU3STcxFf+FQwxWlsU0uzZ3/vYfQ/CK2D+P3CGyARGV7Vo7BnjYGMfgz0GKCUmOFbSc67vQXgJqkOsQdXwAdTuhJxpMG+L1taENHsP9Dwtq2vhVQWs+4LjrPGW8gfBUQRLfgvpY7S2JmQ5VS4maXaX67sWXtJB3S6tbe8axSFGBiUFNj/PoEu3e7480n2u7/quyXawfKa13d3jOC26mPGpcMXDWlsTsnxzQqzX1xWdhVdlMO8VgyWhTM3LYPkY8s6HKcu1tiYkaXTAoW66dp2Fl/RQv0drm/uACiV3gKseLvmTyP2DdOLAsa6L+87Cu0wiADIccJuh6GYwGGHzC1pbE5L8UAhNXUTHdRRelcXExnDC/rUIDEkfDctv09qakMMtw/cFnYv7jsJLerB+obWt3lP5hCilZq2HkdO1tibkOFLUubjvnONtAZqlF0hUGYpuBKUZrnoKDNFaWxRSHC3qPGLXLryqQONh0ZULR5xVUPpHiI6Hq5/R2pqQwu6AyvqOky7bhZeApjBp1HWH+R0xGTN3Bpy7WWtrQooTpR3jaHQd3jYd09o+3ym7DxzFcP7vxBj+IIBYeVvXUW0Pmo5obZ/vKM1QdIMowTb/Q2trQoYSU8fP7cIrDu0DLvxF8ymx5EpiJqx9UGtrQoJqs+jatdEuvCMfnyc/hhKm/xFd0ynLIW+p1tZojqJClbn9sxBelcFZrrVtfkYVkz/cZlj7AMQkaW2Q5lTXtztyhPCSBM5Kre3yP26zCNnSG+GaF7S2RnNqre0hWbqf/otE4UHMuze9AJnjRUt/AFNraY/Aba/jXVVa2xU4Kh4XPZa5W2D42VpboxmWxvb37cK7rVrbFThUtyjy1Rbh1Ruga+s1eozSebhsA7+Nl6a0lELpPRCTCFc/rbU1mmBvbn/f/ugrzf04VZhRvwcS58HoVeByQKPvpwwnWlzt7z0cOBGe49sovVvk/qgY/LtkYOjTtQMn1GPs/Jf81gmgEnq91rYEF5fHehbtRb0UwWPYugQYuhlSViEbc9BLErKqkpooMf8s+OJHrQ0MEh4FXLvwuggTXp8Imde0ij0cvSRhlxXeqbeyt97GW/UW8mdM4hfn6cmvEOPVkU6URwnnIXys1nb5jiEZMjZByioU43B0koTFLbO71sLOOgvvmW04PUJRFh4p4NDUcfz6Yok/be9YFEYihogS3pgNmVsgeRFKVBY6ScLsltnbKva7ZhuublYKONrk4O4yE3ePHMpl88WuUJFM1zlen6C1XX0nejQMuxY1aREYUpCACqeLvSYze8023jHbcPdxGah7ykxcmpbE+TNiOVYqJiBEKvEes8vbhTcO09qunomdCJkbURMXQFSaWKijxcX/1tSxs87CPmtjvxfyX3ykgMpz8tiyTMdd26AhTMMOeyPRY6VYIbwqQ1S21nZ1Jn4aZGxESZqLpE9CAkpanLxV6bvYnljdCquPF/PPyaPZulJsAxqMLcCCTWfhJUnUlaFAwgzI2ISSeC46fTwAJ5tbeK3WxB6zlYP2wHgYP7TYebHGzJYRKVw4U2wDHmkkdRIeHUSP0M6ixHmQuRElYRa61m7lySYHr9WZeLW2gePNwfEq/vJ0GUuS47l0vpFTZZAfYSPVGUPE7Fm9zrOOj85FOPKCEX4lQcpKyLgKOW4KeikKgBNNDnbUmdhe08AphzYu5IU/FHB6xkS2rpL44zaxB2ykkDmkPdLWozsXAzG54CgM0GV1kLoK0tehxJ2NTjKgAl/ZmthRW8uuOgvlTpfPV/GVUqeLXxWU8fzYHDZdKPZ/ixSyUtuddx0HpmOn+Fd4yQCpqyH9CuSYyeh1ehQVDtib2FFbw466Biqdoec1edHUwIb0FJZOSODwZNh/VGuLfCchBhI8XDUewisQN1ksiuALUgykXwFpa5BjxqOXdLhUlc+sjeypt/FKbQOmMHCRrThaSPWsyWxcqqewsmOEajiSe0ZvvV14FYib0r+z6uMgYyOkrkY2jkQvSTgVlX822NlZa+GteisWWe7fuTXCDVx4rJCvzhrH1lUq978idRjWDDdyz9jdzWN0TgfxZ4vBmr6MzRtSIHMzDFmGbByBXpJwKAoftIr9Rr0FmxzecfoH7c3cW2HijhGZrJknlgsNV0YNFb6JtunSHet4yQgJs8H6ede/jsoQfvGUZciGTPSShE2WebPWwp56K2+bbTT2d3ecEOXOkmouTU1i2cwYTpaJ7UDCDZ0Ek3I6zpHvKLwqQ9L8jsIbs0QxnrIMxZDZ64hXJDL/x3yqzpnMlmUSd23rGK0aDozMhNgzRt3PyPE6SFoEsbsg81pImouiT/FqxCsSsboV1p8q5s2Jo9iyHB5/3b8b/AaavC4mDUuq2lHBtg8SUO50s6O2gdfrLOy3NUXSzLp+8dL4HK7OGMKOT73fCkRLbr0KxgzruJx5pwBzCdhTb+WeMhPf2pvD6skONBtOlbIoKZ7LF0RxugIKw8ClmxwPY7M6f99puTMZ0EkS3wyK3iXzfyxAVlW2roQYo9bW9M7MbnZw6yS8Hlg+JIGhUQNztklvFLc4uaGkkvRkuGqJ1tb0zqxJXW9Q1OVatnpJYl16stY2hyxPVtbxmbWRuVNgTp7W1nRPVqqo27vaoKhL4RXg2swUre0OaS44UojFrbDpAgjVW7Voavf70+i6+3JafCxLk8MoDi/IuFSVZUcL0evguhVijDuUMBpgbg8e+G7NlVWVm4cP7vXWE1/Zm3i0qobRw2D1XK2t6cj8szs7bTzpVni9JHHBkARmxIdp2HWQuLmoimPNLayYBXkjtbZGoNfB8lk97z/XYwGlAP85PF3rdIQ8C38ooEVRuW5FxzFvrZg9CVISet5/rkfhdcD69CGDub4Xat1uNp4uJTEOtizTdg6uQQ9r5vW+22SvTRJFhSfHZg+wCcXes6vOwuv1FqaOgSUaLqB93s8gNbH33SZ7FV4vwc8T4liTOrhcWG+sP1FCldPFFQshR4N2cVwMXPTzvh3bp06IAjwyKgtjXzYtHcAowKIjhSCp/GqV6FIFk8vmQ0wfJz33SXgdMDrGyB05mcFNSRhysrmFm4orGZoK6xcH77pjsmDh1L63L7xyO9w6PIM5nvNwBumSxyvr2G9rZOFUOGeC7+frDYMerlnm3bQv7/xNksRL43OI7evu9AOY848UYXXLbL4Q0gLcPFo7X/jldV7UxF4pqAfGxhi578yQzUE64VAUVhwvwmiArSu7HijxB1NyYekM73/ntTkS8Lth6Vw82MrvlS+tTfytuo6x2X1vbXtDUhxcu7J/YWD9eg5VCbaPz2FMOEQiaMxvCys45XBy0RyY4Md5qQY9XL9azJDxpohvo1/C64A4ncTrE0cSP1jf98r8H/JxKqKLlxDj+/lABIGMze7dUdMd/VZNL0lMi49l+4Scwf2ce8HkcrMlv4ykONh0oe/nO2+66Lr5gk+aScAlqUk8NCrLl9MMCF6pbWC32cr0cSJAor/MniRyu6/xkH7JrDdmp3Pr4Nh9r6w9XozJ6ebKJTCiH7crbyT8crkYgPHVh+q3Uvr+3GFcPyzNz7cqslCAJUcLQYKtK1W8iWednAv/sUY05PzhOfeb8CrwxOhsfp81OH7fE0ebHNxeWkV2msS6RX37zdQxQnS93j+igx+Fl1r/eWx0FrePGPTp98QD5TV8bW9i8TSYPq7nY2eMF902ndS/blt3dJpC5S8erqjllqLKAT/tqjvidTqqZuahk8XaemZb52MuOAfWLWqt0/08MBqwnthN2ensmJg76NfvhkZF4ZITRcQYW126HsLqJLjqvMCJDgEUHmBtWhL7zx7D6EEPX5d8ZGnk2ep6xg+HFbPFdwmx8PvLRCQNBEZ0CGBR34YCWNwy60+W8H6krhXqI/kzJjIq2shrn8DK2cIHH+iYl4ALDyJGXydJ/Lm8httLqiN+IQVvGREdReH0iRh0UoflSgJJUIT35FCTgw0nS/mxyeH7ySKAcTFGto3P4dwgB7gEXXhZVVGReKDcxL1lJhyRuFpwH4iSJG7ITuePOUOJksTYRzAJuvCeFDic3FJcxet1lgE1F39RUjxPjR1OXmw0KtrE4WsqvKyq6CWJb+3N3FxcycfhtqqQl+TFRvPgqCwuTklEVkXoulZoKnwbbTfhPbONW0uq+L4xsur/ibHR3DY8gw0ZQ4DgF+tdERLCtyGrKjokPrDYebKqjr1mG3LomOc1sxPiuCE7jfXpQ1AJsNPES0JK+DbaqoAyp4snK+t4zmSmJgzWvwXhir08PZnfDEtjZkIsCqEleBshKXwbbQ0fl6ryVr2VN1tXzzSH2KKyUZLEoqR4NmQM4Yq0ZOL0up8e3lAlpIX3pK0dILeuhP1mvZXd9TaKWrTZSSAzysB5yQlclJLIxalJJIWB2J6EjfCeeN7gCqeLA7ZmvrY38Y29mW/tTVj9vHhyol7HWXExTI2L4WfxsSxIimdyXDTSGbaEE2Ep/JnIiMkeIKqHwhYn+c1OKpwuiltcVDhdlDtdVLncqIgRrwaPZdQNkkS6QU96lIGMKD1Do6JIN+jJjTZyTkIsI6Ojfuprt7mfw0/qjkSE8F2hqCoKouvUH5EUxEMUqRtOR6zwg/TM/wOS5clQQbqa6AAAACV0RVh0ZGF0ZTpjcmVhdGUAMjAyMS0wNy0wNlQwMjowMDoyNSswMDowMHJafQwAAAAldEVYdGRhdGU6bW9kaWZ5ADIwMjEtMDctMDZUMDI6MDA6MjUrMDA6MDADB8WwAAAAAElFTkSuQmCC</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2109,31 +2216,31 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF222222"/>
       <name val="Open Sans"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2173,157 +2280,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2352,12 +2308,14 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2366,8 +2324,43 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2398,194 +2391,8 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2686,254 +2493,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2948,20 +2513,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2995,9 +2548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3005,59 +2555,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -3130,6 +2649,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3387,275 +2909,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3555555555556" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0666666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3555555555556" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.35546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.0703125" customWidth="1"/>
+    <col min="4" max="4" width="35.35546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0666666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.0666666666667" customWidth="1"/>
-    <col min="14" max="1025" width="10.3555555555556" customWidth="1"/>
+    <col min="11" max="11" width="19.0703125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.0703125" customWidth="1"/>
+    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" ht="49.5" customHeight="1">
+      <c r="C3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:8">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="1:8">
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" spans="1:8">
+      <c r="C8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="49.5">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" spans="1:8" ht="49.5">
+      <c r="C10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="1:8" ht="66">
+      <c r="C11" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" spans="1:8">
+      <c r="C12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" spans="1:8">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="33">
+      <c r="C15" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:5">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="34" t="s">
+    <row r="21" spans="3:5">
+      <c r="C21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="34" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="34" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="29" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+    <row r="25" spans="3:5" ht="69" customHeight="1">
+      <c r="C25" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="3:5" ht="14.25" customHeight="1">
+      <c r="C26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="27" spans="3:5" ht="49.5">
+      <c r="C27" s="31" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="29.4222222222222" customWidth="1"/>
-    <col min="5" max="5" width="18.3555555555556" customWidth="1"/>
-    <col min="6" max="6" width="12.9259259259259" customWidth="1"/>
-    <col min="7" max="7" width="21.3555555555556" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.35546875" customWidth="1"/>
+    <col min="6" max="6" width="12.92578125" customWidth="1"/>
+    <col min="7" max="7" width="148.42578125" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="81.3555555555556" customWidth="1"/>
-    <col min="10" max="10" width="45.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="81.35546875" customWidth="1"/>
+    <col min="10" max="10" width="45.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3669,7 +3188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="1:13">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3721,7 +3240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="5:13">
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
         <v>63</v>
       </c>
@@ -3750,7 +3269,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="5:13">
+    <row r="9" spans="1:13">
       <c r="E9" t="s">
         <v>70</v>
       </c>
@@ -3779,7 +3298,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="5:13">
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
         <v>75</v>
       </c>
@@ -3808,7 +3327,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="5:13">
+    <row r="11" spans="1:13">
       <c r="E11" t="s">
         <v>80</v>
       </c>
@@ -3837,7 +3356,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="5:13">
+    <row r="12" spans="1:13">
       <c r="E12" t="s">
         <v>85</v>
       </c>
@@ -3866,7 +3385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="5:13">
+    <row r="13" spans="1:13">
       <c r="E13" t="s">
         <v>90</v>
       </c>
@@ -3895,24 +3414,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="5:13">
+    <row r="14" spans="1:13">
       <c r="E14" t="s">
         <v>95</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
         <v>96</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" t="s">
         <v>98</v>
-      </c>
-      <c r="J14" t="s">
-        <v>99</v>
       </c>
       <c r="K14" s="5">
         <v>70</v>
@@ -3924,24 +3443,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="5:13">
+    <row r="15" spans="1:13">
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" t="s">
         <v>64</v>
       </c>
       <c r="G15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
         <v>101</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" t="s">
         <v>103</v>
-      </c>
-      <c r="J15" t="s">
-        <v>104</v>
       </c>
       <c r="K15" s="5">
         <v>80</v>
@@ -3953,24 +3472,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="5:13">
+    <row r="16" spans="1:13">
       <c r="E16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
         <v>106</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" t="s">
         <v>108</v>
-      </c>
-      <c r="J16" t="s">
-        <v>109</v>
       </c>
       <c r="K16" s="5">
         <v>90</v>
@@ -3984,139 +3503,139 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="E20" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ref="F20:F28" si="0">E8</f>
         <v>fd_report-8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="E21" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="E22" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-10</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="E23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-11</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="E24" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="E25" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="E26" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="E27" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="E28" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="23" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\agile-service-new\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E6AD20-6E62-4C0D-A149-4F85135B880E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863871B2-23F8-4F03-BA28-023DC57DCFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2197,7 +2197,7 @@
     <t>N_AGILE</t>
   </si>
   <si>
-    <t>data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAH4AAAB+CAYAAADiI6WIAAAABGdBTUEAALGPC/xhBQAAACBjSFJNAAB6JgAAgIQAAPoAAACA6AAAdTAAAOpgAAA6mAAAF3CculE8AAAABmJLR0QA/wD/AP+gvaeTAAAACXBIWXMAAABgAAAAYADwa0LPAAAS8UlEQVR42u2dd3hUZb7HP2dmMukJqZBACB0CCgtSVjqK0hQRFXSlyCp79/Hu3V0fvZa9j2V1rWtZ9+qqz+qqXLEAXhW4lrUXBAuuoHTS+6RMpiSZzMw55/7xJmZC6mTKmZnk8zwDM5Mz5/ze8z1v+72/930lVVVVBhlw6LQ2ICCoCiiyT6eQFYjkHGHQ2gCfUWSQdCBJ4nOjGSqPgKUSbNVgqRL/N5rB2SiOaWmEra9h1mXx5G7xVXQUxMdAQiwkx0NaEqQnw9AUSEnwuJwKOknrRPtO+AmvqoAqxJadUPg1lH4PVceg8hjYa/p8HresUlzdu4qxRshOh5GZMDYLJoyAlETxt3B9EMJHeFURYteXwKlPIX8fFB8Ed0vAL93shPwK8fr4e/FdWhKcNQqmtL6MhvB6CEJb+Daxm8xweA8c2g3VJ7S2CoA6K3x6WLyio2DGeDh3MuSNbDVdba99QpHQFF5VAAlOfQ7f7YTTX/jcWAskLS7Yf1S8UhJhziSYdxYMSwndUiC0hFcVkVV+fBv2/QNqTmttkdeYbfDuN+I1bjismQsTc0LvAQgN4dty83c7Yd/zYKnQ2iK/cLocHt4pGoMXzYG8XFAU0IVAJ1pb4RUZdHooPADvPQS1BVrfj4BwsgweLYPRw2DtApiUo/0DoK3wlgp470E4+ammZgSLwip4ZCdMGwMblgp/gVYNwOALryoitV+/DO8/KvriA4xDBXDyBbhkLiyZLr4Ldv0ffOEtlfDGrcLpMoBpdsKrn8C+I7BlOeRkBPf6Qapl2rzeCrz/yIAX3ZPSGrjvZfjwX+JzsIbMgiC8DKoLyh4AtxXW3AvRicFJXZjgluHVj+HpvcInoARB/AALr4DTBCd+ATUvQfEfICoGNj8X+JSFIQdPwl3boKQ68NcKrPC2A3D8cmg+Lj5bPwPTSzAsDxb/e+BTF4bUWeGhHfDdqcBeJ3DC1++F/OtBtnT8vuIxaD4BC66DrLzApi5Mcbnhmb1iHCBQBEb4mu2iWFfdnf+mOqHwBlHvb3oOdKHhPAw1FBVe+gD2HgjM+f0ovCqapBWPQ9n9gNL9oS0lUHafaORd+d+BSVmE8NaXsP1D8d6fbT4/Ci9BxSNQ/fe+HV73BpjfhXHzYPpaPyYp8vjkkMj9/vTx+E/4qmfA9IJ3vym9C5xVsPK/IGmoH5MVeXx6GPbs99/5/CN87atQ2Y8iW7ZD0U2int+yzX+pilB272939PiKj8KrYH4HSu/r/ykaD0HVE5CcDavu9N9dilB2fCK6er56+PovvKqAIx9KbqfHhlxfqHoW7N/AjLUwdp7fb1Ykoajw97eh2OSbh69/wqsyKE1Q8BtQHP5IDhTdArIN1j0GxrjA3LUIwS3DU7vB4RTj+v2hf8JLkuiLt5T5LzUukyg9omJE/36QHqm3wXPv9H88v3/CV/4NbH5sYrZh+QhqXoXsKbDg3/x//gjjcAF81M/GnnfCqwo0HYfqZwOXmvI/i7bD4l/D0AmBu06EsOtzKK72vr73QngVUKD4tq5dsf5CdULhjaIdsfFZ70wcgLhl0djztpXvxV2VoPKv4AjwsBGIHF/+IMSlwPq/BP56YU61Gd4/6N1v+ia8KouhVW89c75QuwMaPoCJi2Hq6uBdN0zZs180+Prayu+b8JJeRNCoPvbXvaXkdhHIcfGdkBDkoLQww+mG1z7pe8h274epMlg+BPu3wU+NbIPim0FvgGueD/71w4zvTsEPhX2r73sXXgLKH9EuNfaDUPU0pObCij9oZ0eYsOuzvvXtexFeFf3qlhJtU1P1NNj/BTPXwag52toS4lTUwff5vXfvehZeVcD0otZpEXYU3STcxFf+FQwxWlsU0uzZ3/vYfQ/CK2D+P3CGyARGV7Vo7BnjYGMfgz0GKCUmOFbSc67vQXgJqkOsQdXwAdTuhJxpMG+L1taENHsP9Dwtq2vhVQWs+4LjrPGW8gfBUQRLfgvpY7S2JmQ5VS4maXaX67sWXtJB3S6tbe8axSFGBiUFNj/PoEu3e7480n2u7/quyXawfKa13d3jOC26mPGpcMXDWlsTsnxzQqzX1xWdhVdlMO8VgyWhTM3LYPkY8s6HKcu1tiYkaXTAoW66dp2Fl/RQv0drm/uACiV3gKseLvmTyP2DdOLAsa6L+87Cu0wiADIccJuh6GYwGGHzC1pbE5L8UAhNXUTHdRRelcXExnDC/rUIDEkfDctv09qakMMtw/cFnYv7jsJLerB+obWt3lP5hCilZq2HkdO1tibkOFLUubjvnONtAZqlF0hUGYpuBKUZrnoKDNFaWxRSHC3qPGLXLryqQONh0ZULR5xVUPpHiI6Hq5/R2pqQwu6AyvqOky7bhZeApjBp1HWH+R0xGTN3Bpy7WWtrQooTpR3jaHQd3jYd09o+3ym7DxzFcP7vxBj+IIBYeVvXUW0Pmo5obZ/vKM1QdIMowTb/Q2trQoYSU8fP7cIrDu0DLvxF8ymx5EpiJqx9UGtrQoJqs+jatdEuvCMfnyc/hhKm/xFd0ynLIW+p1tZojqJClbn9sxBelcFZrrVtfkYVkz/cZlj7AMQkaW2Q5lTXtztyhPCSBM5Kre3yP26zCNnSG+GaF7S2RnNqre0hWbqf/otE4UHMuze9AJnjRUt/AFNraY/Aba/jXVVa2xU4Kh4XPZa5W2D42VpboxmWxvb37cK7rVrbFThUtyjy1Rbh1Ruga+s1eozSebhsA7+Nl6a0lELpPRCTCFc/rbU1mmBvbn/f/ugrzf04VZhRvwcS58HoVeByQKPvpwwnWlzt7z0cOBGe49sovVvk/qgY/LtkYOjTtQMn1GPs/Jf81gmgEnq91rYEF5fHehbtRb0UwWPYugQYuhlSViEbc9BLErKqkpooMf8s+OJHrQ0MEh4FXLvwuggTXp8Imde0ij0cvSRhlxXeqbeyt97GW/UW8mdM4hfn6cmvEOPVkU6URwnnIXys1nb5jiEZMjZByioU43B0koTFLbO71sLOOgvvmW04PUJRFh4p4NDUcfz6Yok/be9YFEYihogS3pgNmVsgeRFKVBY6ScLsltnbKva7ZhuublYKONrk4O4yE3ePHMpl88WuUJFM1zlen6C1XX0nejQMuxY1aREYUpCACqeLvSYze8023jHbcPdxGah7ykxcmpbE+TNiOVYqJiBEKvEes8vbhTcO09qunomdCJkbURMXQFSaWKijxcX/1tSxs87CPmtjvxfyX3ykgMpz8tiyTMdd26AhTMMOeyPRY6VYIbwqQ1S21nZ1Jn4aZGxESZqLpE9CAkpanLxV6bvYnljdCquPF/PPyaPZulJsAxqMLcCCTWfhJUnUlaFAwgzI2ISSeC46fTwAJ5tbeK3WxB6zlYP2wHgYP7TYebHGzJYRKVw4U2wDHmkkdRIeHUSP0M6ixHmQuRElYRa61m7lySYHr9WZeLW2gePNwfEq/vJ0GUuS47l0vpFTZZAfYSPVGUPE7Fm9zrOOj85FOPKCEX4lQcpKyLgKOW4KeikKgBNNDnbUmdhe08AphzYu5IU/FHB6xkS2rpL44zaxB2ykkDmkPdLWozsXAzG54CgM0GV1kLoK0tehxJ2NTjKgAl/ZmthRW8uuOgvlTpfPV/GVUqeLXxWU8fzYHDZdKPZ/ixSyUtuddx0HpmOn+Fd4yQCpqyH9CuSYyeh1ehQVDtib2FFbw466Biqdoec1edHUwIb0FJZOSODwZNh/VGuLfCchBhI8XDUewisQN1ksiuALUgykXwFpa5BjxqOXdLhUlc+sjeypt/FKbQOmMHCRrThaSPWsyWxcqqewsmOEajiSe0ZvvV14FYib0r+z6uMgYyOkrkY2jkQvSTgVlX822NlZa+GteisWWe7fuTXCDVx4rJCvzhrH1lUq978idRjWDDdyz9jdzWN0TgfxZ4vBmr6MzRtSIHMzDFmGbByBXpJwKAoftIr9Rr0FmxzecfoH7c3cW2HijhGZrJknlgsNV0YNFb6JtunSHet4yQgJs8H6ede/jsoQfvGUZciGTPSShE2WebPWwp56K2+bbTT2d3ecEOXOkmouTU1i2cwYTpaJ7UDCDZ0Ek3I6zpHvKLwqQ9L8jsIbs0QxnrIMxZDZ64hXJDL/x3yqzpnMlmUSd23rGK0aDozMhNgzRt3PyPE6SFoEsbsg81pImouiT/FqxCsSsboV1p8q5s2Jo9iyHB5/3b8b/AaavC4mDUuq2lHBtg8SUO50s6O2gdfrLOy3NUXSzLp+8dL4HK7OGMKOT73fCkRLbr0KxgzruJx5pwBzCdhTb+WeMhPf2pvD6skONBtOlbIoKZ7LF0RxugIKw8ClmxwPY7M6f99puTMZ0EkS3wyK3iXzfyxAVlW2roQYo9bW9M7MbnZw6yS8Hlg+JIGhUQNztklvFLc4uaGkkvRkuGqJ1tb0zqxJXW9Q1OVatnpJYl16stY2hyxPVtbxmbWRuVNgTp7W1nRPVqqo27vaoKhL4RXg2swUre0OaS44UojFrbDpAgjVW7Voavf70+i6+3JafCxLk8MoDi/IuFSVZUcL0evguhVijDuUMBpgbg8e+G7NlVWVm4cP7vXWE1/Zm3i0qobRw2D1XK2t6cj8szs7bTzpVni9JHHBkARmxIdp2HWQuLmoimPNLayYBXkjtbZGoNfB8lk97z/XYwGlAP85PF3rdIQ8C38ooEVRuW5FxzFvrZg9CVISet5/rkfhdcD69CGDub4Xat1uNp4uJTEOtizTdg6uQQ9r5vW+22SvTRJFhSfHZg+wCcXes6vOwuv1FqaOgSUaLqB93s8gNbH33SZ7FV4vwc8T4liTOrhcWG+sP1FCldPFFQshR4N2cVwMXPTzvh3bp06IAjwyKgtjXzYtHcAowKIjhSCp/GqV6FIFk8vmQ0wfJz33SXgdMDrGyB05mcFNSRhysrmFm4orGZoK6xcH77pjsmDh1L63L7xyO9w6PIM5nvNwBumSxyvr2G9rZOFUOGeC7+frDYMerlnm3bQv7/xNksRL43OI7evu9AOY848UYXXLbL4Q0gLcPFo7X/jldV7UxF4pqAfGxhi578yQzUE64VAUVhwvwmiArSu7HijxB1NyYekM73/ntTkS8Lth6Vw82MrvlS+tTfytuo6x2X1vbXtDUhxcu7J/YWD9eg5VCbaPz2FMOEQiaMxvCys45XBy0RyY4Md5qQY9XL9azJDxpohvo1/C64A4ncTrE0cSP1jf98r8H/JxKqKLlxDj+/lABIGMze7dUdMd/VZNL0lMi49l+4Scwf2ce8HkcrMlv4ykONh0oe/nO2+66Lr5gk+aScAlqUk8NCrLl9MMCF6pbWC32cr0cSJAor/MniRyu6/xkH7JrDdmp3Pr4Nh9r6w9XozJ6ebKJTCiH7crbyT8crkYgPHVh+q3Uvr+3GFcPyzNz7cqslCAJUcLQYKtK1W8iWednAv/sUY05PzhOfeb8CrwxOhsfp81OH7fE0ebHNxeWkV2msS6RX37zdQxQnS93j+igx+Fl1r/eWx0FrePGPTp98QD5TV8bW9i8TSYPq7nY2eMF902ndS/blt3dJpC5S8erqjllqLKAT/tqjvidTqqZuahk8XaemZb52MuOAfWLWqt0/08MBqwnthN2ensmJg76NfvhkZF4ZITRcQYW126HsLqJLjqvMCJDgEUHmBtWhL7zx7D6EEPX5d8ZGnk2ep6xg+HFbPFdwmx8PvLRCQNBEZ0CGBR34YCWNwy60+W8H6krhXqI/kzJjIq2shrn8DK2cIHH+iYl4ALDyJGXydJ/Lm8httLqiN+IQVvGREdReH0iRh0UoflSgJJUIT35FCTgw0nS/mxyeH7ySKAcTFGto3P4dwgB7gEXXhZVVGReKDcxL1lJhyRuFpwH4iSJG7ITuePOUOJksTYRzAJuvCeFDic3FJcxet1lgE1F39RUjxPjR1OXmw0KtrE4WsqvKyq6CWJb+3N3FxcycfhtqqQl+TFRvPgqCwuTklEVkXoulZoKnwbbTfhPbONW0uq+L4xsur/ibHR3DY8gw0ZQ4DgF+tdERLCtyGrKjokPrDYebKqjr1mG3LomOc1sxPiuCE7jfXpQ1AJsNPES0JK+DbaqoAyp4snK+t4zmSmJgzWvwXhir08PZnfDEtjZkIsCqEleBshKXwbbQ0fl6ryVr2VN1tXzzSH2KKyUZLEoqR4NmQM4Yq0ZOL0up8e3lAlpIX3pK0dILeuhP1mvZXd9TaKWrTZSSAzysB5yQlclJLIxalJJIWB2J6EjfCeeN7gCqeLA7ZmvrY38Y29mW/tTVj9vHhyol7HWXExTI2L4WfxsSxIimdyXDTSGbaEE2Ep/JnIiMkeIKqHwhYn+c1OKpwuiltcVDhdlDtdVLncqIgRrwaPZdQNkkS6QU96lIGMKD1Do6JIN+jJjTZyTkIsI6Ojfuprt7mfw0/qjkSE8F2hqCoKouvUH5EUxEMUqRtOR6zwg/TM/wOS5clQQbqa6AAAACV0RVh0ZGF0ZTpjcmVhdGUAMjAyMS0wNy0wNlQwMjowMDoyNSswMDowMHJafQwAAAAldEVYdGRhdGU6bW9kaWZ5ADIwMjEtMDctMDZUMDI6MDA6MjUrMDA6MDADB8WwAAAAAElFTkSuQmCC</t>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTI2cHgiIGhlaWdodD0iMTI2cHgiIHZpZXdCb3g9IjAgMCAxMjYgMTI2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPHRpdGxlPumlvOWbvjwvdGl0bGU+CiAgICA8ZyBpZD0i6Ieq5a6a5LmJ5pWP5o235oql6KGoIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Y2P5L2c5Zu+6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtOTE5LjAwMDAwMCwgLTQ4MC4wMDAwMDApIiBmaWxsLXJ1bGU9Im5vbnplcm8iIHN0cm9rZT0iI0ZGRkZGRiIgc3Ryb2tlLXdpZHRoPSIxLjUiPgogICAgICAgICAgICA8ZyBpZD0i6Ieq5a6a5LmJ5oql6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtMi4wMDAwMDAsIDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg4NDkuMDAwMDAwLCA0NDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Iui3r+W+hCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzMuMDAwMDAwLCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTYyLjEsNjIgTDI1LjksMTIuMSBDMzYuMzMxMDYyMyw0LjI3NDI1MDE1IDQ5LjA2MDg3NzcsMC4xMjQ3NTIyOTQgNjIuMSwwLjMgTDYyLjEsNjIgWiIgZmlsbD0iI0ZGODEyQyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjIuMSw2MiBMMy41LDgxIEMtNC45LDU1LjEgMy45LDI4LjEgMjUuOSwxMi4xIEw2Mi4xLDYyIFoiIGZpbGw9IiNGRkNFMkIiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTYyLjEsNjIgTDk4LjMsMTExLjkgQzcwLjc2MjU2NjcsMTMxLjg5NTE5NyAzMi4yMzM4MTA4LDEyNS44MDkzNTQgMTIuMiw5OC4zIEM4LjMzMTQxOTg4LDkzLjA5NTQwODcgNS4zNTczNDAzMSw4Ny4yODI0MzUgMy40LDgxLjEgTDYyLjEsNjIgWiIgZmlsbD0iIzAwQzVEMiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjIuMSw2MiBMNjIuMSwwLjQgQzk2LjExMzg4MTcsMC40MTY1NTMxMTMgMTIzLjY4MzQ0NywyNy45ODYxMTgzIDEyMy43LDYyIEMxMjMuNyw4Mi40IDExNC44LDk5LjkgOTguMywxMTEuOSBMNjIuMSw2MiBaIiBmaWxsPSIjNjQ4REZGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2555,11 +2555,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2570,7 +2571,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2939,11 +2939,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="9"/>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
@@ -2956,17 +2956,17 @@
         <v>1</v>
       </c>
       <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="12" t="s">
         <v>4</v>
       </c>
@@ -3077,11 +3077,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="29" t="s">
@@ -3158,7 +3158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -3421,7 +3421,7 @@
       <c r="F14" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="32" t="s">
         <v>117</v>
       </c>
       <c r="H14" t="s">

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\agile-service-new\agile-service\src\main\resources\script\db\init-data\agile_service\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863871B2-23F8-4F03-BA28-023DC57DCFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7170" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -53,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -66,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -85,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -104,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -123,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -155,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -174,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -193,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -215,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -236,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -257,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -278,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -299,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -311,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -330,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -342,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -361,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -380,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -399,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -418,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -466,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -485,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -504,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -523,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -535,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -554,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -573,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -593,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -612,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -632,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -651,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -663,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -682,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -701,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -725,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -744,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -763,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -782,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -801,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -813,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -832,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -843,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -864,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -875,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -894,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -913,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -937,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -956,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -976,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -996,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1016,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1037,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1057,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1092,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1113,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1125,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1144,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1165,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1184,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1197,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1216,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1235,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1254,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1269,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1288,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1307,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1326,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1345,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1361,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1371,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1390,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1406,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1416,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1435,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1450,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1469,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1488,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1508,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1532,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1551,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1570,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1590,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1611,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1622,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1632,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1644,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1663,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1682,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1701,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1721,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1740,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1759,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1779,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1798,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1817,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1836,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1856,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1868,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1879,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1889,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1901,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1920,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1932,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1951,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1971,7 +1860,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
@@ -2017,10 +1905,16 @@
     <t>icon</t>
   </si>
   <si>
-    <t>#title</t>
-  </si>
-  <si>
-    <t>description</t>
+    <t>title:zh_CN</t>
+  </si>
+  <si>
+    <t>title:en_US</t>
+  </si>
+  <si>
+    <t>description:zh_CN</t>
+  </si>
+  <si>
+    <t>description:en_US</t>
   </si>
   <si>
     <t>path</t>
@@ -2047,9 +1941,15 @@
     <t>燃尽图</t>
   </si>
   <si>
+    <t>Burndown Chart</t>
+  </si>
+  <si>
     <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
   </si>
   <si>
+    <t>Track the total work remaining and project the likelihood of achieving the sprint goal. This helps your team manage its progress and respond accordingly.</t>
+  </si>
+  <si>
     <t>/agile/charts/burndownchart</t>
   </si>
   <si>
@@ -2065,9 +1965,15 @@
     <t>冲刺报告图</t>
   </si>
   <si>
+    <t>Sprint Report</t>
+  </si>
+  <si>
     <t>了解每个冲刺中完成、进行和退回待办的工作。这有助于您确定团队的工作量是否超额。</t>
   </si>
   <si>
+    <t>Understand the work completed or pushed back to the backlog in each sprint. This helps you determine if your team is overcommitting or if there is excessive scope creep.</t>
+  </si>
+  <si>
     <t>/agile/charts/sprintReport</t>
   </si>
   <si>
@@ -2080,9 +1986,15 @@
     <t>累积流量图</t>
   </si>
   <si>
+    <t>Cumulative Flow Diagram</t>
+  </si>
+  <si>
     <t>显示状态的问题，这有助于您识别潜在的瓶颈， 需要对此进行调查。</t>
   </si>
   <si>
+    <t>Shows the statuses of issues over time. This helps you identify potential bottlenecks that need to be investigated.</t>
+  </si>
+  <si>
     <t>/agile/charts/accumulation</t>
   </si>
   <si>
@@ -2095,9 +2007,15 @@
     <t>版本报告图</t>
   </si>
   <si>
+    <t>Version Report</t>
+  </si>
+  <si>
     <t>跟踪对应的版本发布日期，这有助于您监控此版本是否按时发布，以便工作滞后时能采取行动。</t>
   </si>
   <si>
+    <t>Track the projected release date for a version. This helps you monitor whether the version will release on time, so you can take action if work is falling behind.</t>
+  </si>
+  <si>
     <t>/agile/charts/versionReport</t>
   </si>
   <si>
@@ -2110,9 +2028,15 @@
     <t>迭代速度图</t>
   </si>
   <si>
+    <t>Velocity Chart</t>
+  </si>
+  <si>
     <t>跟踪各个迭代已完成的工时量。这有助于您确定团队的开发速度并预估在未来迭代中能完成的工作量。</t>
   </si>
   <si>
+    <t>Track the amount of work completed from sprint to sprint. This helps you determine your team's velocity and estimate the work your team can realistically achieve in future sprints.</t>
+  </si>
+  <si>
     <t>/agile/charts/velocityChart</t>
   </si>
   <si>
@@ -2125,21 +2049,36 @@
     <t>史诗报告图</t>
   </si>
   <si>
+    <t>Epic Report</t>
+  </si>
+  <si>
     <t>随时了解一个史诗的完成进度。这有助于您跟踪未完成或未分配问题来管理团队的开发进度。</t>
   </si>
   <si>
+    <t>Understand the progress towards completing an epic over time. This helps you manage your team's progress by tracking the remaining incomplete/unestimated work.</t>
+  </si>
+  <si>
     <t>/agile/charts/EpicReport</t>
   </si>
   <si>
     <t>fd_report-14</t>
   </si>
   <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTI2cHgiIGhlaWdodD0iMTI2cHgiIHZpZXdCb3g9IjAgMCAxMjYgMTI2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPHRpdGxlPumlvOWbvjwvdGl0bGU+CiAgICA8ZyBpZD0i6Ieq5a6a5LmJ5pWP5o235oql6KGoIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Y2P5L2c5Zu+6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtOTE5LjAwMDAwMCwgLTQ4MC4wMDAwMDApIiBmaWxsLXJ1bGU9Im5vbnplcm8iIHN0cm9rZT0iI0ZGRkZGRiIgc3Ryb2tlLXdpZHRoPSIxLjUiPgogICAgICAgICAgICA8ZyBpZD0i6Ieq5a6a5LmJ5oql6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtMi4wMDAwMDAsIDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg4NDkuMDAwMDAwLCA0NDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Iui3r+W+hCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzMuMDAwMDAwLCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTYyLjEsNjIgTDI1LjksMTIuMSBDMzYuMzMxMDYyMyw0LjI3NDI1MDE1IDQ5LjA2MDg3NzcsMC4xMjQ3NTIyOTQgNjIuMSwwLjMgTDYyLjEsNjIgWiIgZmlsbD0iI0ZGODEyQyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjIuMSw2MiBMMy41LDgxIEMtNC45LDU1LjEgMy45LDI4LjEgMjUuOSwxMi4xIEw2Mi4xLDYyIFoiIGZpbGw9IiNGRkNFMkIiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTYyLjEsNjIgTDk4LjMsMTExLjkgQzcwLjc2MjU2NjcsMTMxLjg5NTE5NyAzMi4yMzM4MTA4LDEyNS44MDkzNTQgMTIuMiw5OC4zIEM4LjMzMTQxOTg4LDkzLjA5NTQwODcgNS4zNTczNDAzMSw4Ny4yODI0MzUgMy40LDgxLjEgTDYyLjEsNjIgWiIgZmlsbD0iIzAwQzVEMiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjIuMSw2MiBMNjIuMSwwLjQgQzk2LjExMzg4MTcsMC40MTY1NTMxMTMgMTIzLjY4MzQ0NywyNy45ODYxMTgzIDEyMy43LDYyIEMxMjMuNyw4Mi40IDExNC44LDk5LjkgOTguMywxMTEuOSBMNjIuMSw2MiBaIiBmaWxsPSIjNjQ4REZGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
     <t>统计图</t>
   </si>
   <si>
+    <t>Pie Chart Report</t>
+  </si>
+  <si>
     <t>根据指定字段以统计图呈现项目或筛选器下的问题。这可以使您一目了然地了解问题详情。</t>
   </si>
   <si>
+    <t>Shows a pie chart of issues for a project/filter grouped by a specified field. This helps you see the breakdown of a set of issues, at a glance.</t>
+  </si>
+  <si>
     <t>/agile/charts/pieReport</t>
   </si>
   <si>
@@ -2152,9 +2091,15 @@
     <t>史诗燃耗图</t>
   </si>
   <si>
+    <t>Epic Burndown</t>
+  </si>
+  <si>
     <t>跟踪史诗完成速度预计所需冲刺数。这有助于您监控史诗能否按时发布，以便在工作落后时采取行动。</t>
   </si>
   <si>
+    <t>Track the projected number of sprints required to complete the epic (optimized for Scrum). This helps you monitor whether the epic will release on time, so you can take action if work is falling behind.</t>
+  </si>
+  <si>
     <t>/agile/charts/epicBurndown</t>
   </si>
   <si>
@@ -2167,9 +2112,15 @@
     <t>版本燃耗图</t>
   </si>
   <si>
+    <t>Version Burndown</t>
+  </si>
+  <si>
     <t>跟踪版本完成速度预计发布日期。这有助于您监控版本能否按时发布，以便在工作落后时采取行动。</t>
   </si>
   <si>
+    <t>Track the projected release date for a version . This helps you monitor whether the version will release on time, so you can take action if work is falling behind.</t>
+  </si>
+  <si>
     <t>/agile/charts/versionBurndown</t>
   </si>
   <si>
@@ -2195,17 +2146,19 @@
   </si>
   <si>
     <t>N_AGILE</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTI2cHgiIGhlaWdodD0iMTI2cHgiIHZpZXdCb3g9IjAgMCAxMjYgMTI2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPHRpdGxlPumlvOWbvjwvdGl0bGU+CiAgICA8ZyBpZD0i6Ieq5a6a5LmJ5pWP5o235oql6KGoIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Y2P5L2c5Zu+6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtOTE5LjAwMDAwMCwgLTQ4MC4wMDAwMDApIiBmaWxsLXJ1bGU9Im5vbnplcm8iIHN0cm9rZT0iI0ZGRkZGRiIgc3Ryb2tlLXdpZHRoPSIxLjUiPgogICAgICAgICAgICA8ZyBpZD0i6Ieq5a6a5LmJ5oql6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtMi4wMDAwMDAsIDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg4NDkuMDAwMDAwLCA0NDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Iui3r+W+hCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzMuMDAwMDAwLCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTYyLjEsNjIgTDI1LjksMTIuMSBDMzYuMzMxMDYyMyw0LjI3NDI1MDE1IDQ5LjA2MDg3NzcsMC4xMjQ3NTIyOTQgNjIuMSwwLjMgTDYyLjEsNjIgWiIgZmlsbD0iI0ZGODEyQyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjIuMSw2MiBMMy41LDgxIEMtNC45LDU1LjEgMy45LDI4LjEgMjUuOSwxMi4xIEw2Mi4xLDYyIFoiIGZpbGw9IiNGRkNFMkIiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTYyLjEsNjIgTDk4LjMsMTExLjkgQzcwLjc2MjU2NjcsMTMxLjg5NTE5NyAzMi4yMzM4MTA4LDEyNS44MDkzNTQgMTIuMiw5OC4zIEM4LjMzMTQxOTg4LDkzLjA5NTQwODcgNS4zNTczNDAzMSw4Ny4yODI0MzUgMy40LDgxLjEgTDYyLjEsNjIgWiIgZmlsbD0iIzAwQzVEMiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjIuMSw2MiBMNjIuMSwwLjQgQzk2LjExMzg4MTcsMC40MTY1NTMxMTMgMTIzLjY4MzQ0NywyNy45ODYxMTgzIDEyMy43LDYyIEMxMjMuNyw4Mi40IDExNC44LDk5LjkgOTguMywxMTEuOSBMNjIuMSw2MiBaIiBmaWxsPSIjNjQ4REZGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2216,31 +2169,37 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="48"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
       <color rgb="FF222222"/>
       <name val="Open Sans"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2280,6 +2239,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
@@ -2301,6 +2417,13 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2308,14 +2431,18 @@
       <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2324,43 +2451,8 @@
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2391,8 +2483,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2493,10 +2771,252 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2506,6 +3026,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2513,32 +3034,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2548,35 +3081,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2649,9 +3216,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2909,272 +3473,275 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.35546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0703125" customWidth="1"/>
-    <col min="4" max="4" width="35.35546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3555555555556" style="9" customWidth="1"/>
+    <col min="3" max="3" width="28.0666666666667" customWidth="1"/>
+    <col min="4" max="4" width="35.3555555555556" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
+    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
+    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0703125" customWidth="1"/>
-    <col min="12" max="12" width="18.5703125" customWidth="1"/>
-    <col min="13" max="13" width="13.0703125" customWidth="1"/>
-    <col min="14" max="1025" width="10.35546875" customWidth="1"/>
+    <col min="11" max="11" width="19.0666666666667" customWidth="1"/>
+    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
+    <col min="13" max="13" width="13.0666666666667" customWidth="1"/>
+    <col min="14" max="1025" width="10.3555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="C1" s="34" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="33" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="36" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="15" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="18" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:8" ht="49.5">
-      <c r="C9" s="21" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="66">
-      <c r="C11" s="18" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="18" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" ht="33">
-      <c r="C15" s="26" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="29" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="29" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="29" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="29" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="30" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="19" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="3:5" ht="49.5">
-      <c r="C27" s="31" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.35546875" customWidth="1"/>
-    <col min="6" max="6" width="12.92578125" customWidth="1"/>
-    <col min="7" max="7" width="148.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="81.35546875" customWidth="1"/>
-    <col min="10" max="10" width="45.640625" customWidth="1"/>
+    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
+    <col min="4" max="4" width="29.4222222222222" customWidth="1"/>
+    <col min="5" max="5" width="18.3555555555556" customWidth="1"/>
+    <col min="6" max="6" width="12.9259259259259" customWidth="1"/>
+    <col min="7" max="7" width="148.422222222222" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="10" max="11" width="81.3555555555556" customWidth="1"/>
+    <col min="12" max="12" width="45.637037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -3188,7 +3755,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="5:7">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3199,7 +3766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3224,7 +3791,7 @@
       <c r="H7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>58</v>
       </c>
       <c r="J7" t="s">
@@ -3233,409 +3800,469 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" t="s">
         <v>61</v>
       </c>
       <c r="M7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="5">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15">
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="5">
-        <v>10</v>
-      </c>
-      <c r="L8">
+      <c r="G9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="5">
         <v>20</v>
       </c>
-      <c r="M8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="E9" t="s">
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="5:15">
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="5">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15">
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="5">
+        <v>40</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15">
+      <c r="E12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="5">
+        <v>50</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15">
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="5">
+        <v>60</v>
+      </c>
+      <c r="N13">
+        <v>20</v>
+      </c>
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15">
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" s="5">
         <v>70</v>
       </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="5" t="s">
+      <c r="N14">
+        <v>20</v>
+      </c>
+      <c r="O14" t="s">
         <v>73</v>
       </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" s="5">
+    </row>
+    <row r="15" spans="5:15">
+      <c r="E15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" s="5">
+        <v>80</v>
+      </c>
+      <c r="N15">
         <v>20</v>
       </c>
-      <c r="L9">
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="5:15">
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="5">
+        <v>90</v>
+      </c>
+      <c r="N16">
         <v>20</v>
       </c>
-      <c r="M9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K10" s="5">
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="5">
-        <v>40</v>
-      </c>
-      <c r="L11">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" t="s">
-        <v>85</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" t="s">
-        <v>89</v>
-      </c>
-      <c r="K12" s="5">
-        <v>50</v>
-      </c>
-      <c r="L12">
-        <v>20</v>
-      </c>
-      <c r="M12" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="E13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="5">
-        <v>60</v>
-      </c>
-      <c r="L13">
-        <v>20</v>
-      </c>
-      <c r="M13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="5">
-        <v>70</v>
-      </c>
-      <c r="L14">
-        <v>20</v>
-      </c>
-      <c r="M14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="E15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K15" s="5">
-        <v>80</v>
-      </c>
-      <c r="L15">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="E16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="J16" t="s">
-        <v>108</v>
-      </c>
-      <c r="K16" s="5">
-        <v>90</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-      <c r="M16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="O16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
+        <v>135</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="5:7">
       <c r="E20" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ref="F20:F28" si="0">E8</f>
         <v>fd_report-8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7">
       <c r="E21" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7">
       <c r="E22" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-10</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7">
       <c r="E23" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-11</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7">
       <c r="E24" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7">
       <c r="E25" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7">
       <c r="E26" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7">
       <c r="E27" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7">
       <c r="E28" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7170" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7770" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -1932,33 +1932,33 @@
     <t>fd_report-8</t>
   </si>
   <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NHB4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg0IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAyPC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiYDmnInmiqXooajvvI3nh4PlsL3lm74iIHRyYW5zZm9ybT0idHJhbnNsYXRlKC00OC4wMDAwMDAsIC00Mi4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIj4KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNDMuMTgzNjczNSIgeT0iMCIgd2lkdGg9IjI0LjQwODE2MzMiIGhlaWdodD0iMTA2IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjEwNS4xNDI4NTciIHk9IjAiIHdpZHRoPSIyNC40MDgxNjMzIiBoZWlnaHQ9IjEwNiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuOTM4Nzc1NTEsMTA1IEwxODMuMzg5NTg1LDEwNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw3OSBMMTgzLjIyNTQwNSw3OSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw1MyBMMTgzLjIyNTQwNSw1MyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwyNyBMMTgzLjIyNTQwNSwyNyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwxIEwxODMuMjI1NDA1LDEiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTUuNzg2NDM5NTMsMy41MzE5MTQ4OSBMMTc3LjI4NzQxNCwxMDIuNDY4MDg1IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNy4yNTc2MTg3NCw1IEw0NS4wMzk3NjQ0LDEzLjg1MDQwNDcgQzQ1LjU3ODkyMTcsMTMuOTc2NzAxNSA0Ni4wNDE1ODUsMTQuMzIwODgyNiA0Ni4zMTc1NTM5LDE0LjgwMDk2ODcgTDY2LjU4MTczODMsNTAuMDUzMzIxNSBDNjcuMDExNjk4NSw1MC44MDEyOTY3IDY3Ljg3MjgzNzQsNTEuMTg5MjU1IDY4LjcxNzk1MjYsNTEuMDE1NzIzOSBMMTEyLjMzMjI4Myw0Mi4wNjAyMDMgQzExMy4yNzYyMSw0MS44NjYzODIyIDExNC4yMjQxNDIsNDIuMzczMjA5OCAxMTQuNTg3MTg3LDQzLjI2NTgyNjEgTDEzNi40NzM4MzcsOTcuMDc4Mjg5NSBDMTM2Ljc0MjQ0LDk3LjczODY5ODggMTM3LjM0MjI4Nyw5OC4yMDYxOTAyIDEzOC4wNDgzMDEsOTguMzA1MzQ4MyBMMTc4LjU5NDY3NCwxMDQiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>燃尽图</t>
+  </si>
+  <si>
+    <t>Burndown Chart</t>
+  </si>
+  <si>
+    <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
+  </si>
+  <si>
+    <t>Track the total work remaining and project the likelihood of achieving the sprint goal. This helps your team manage its progress and respond accordingly.</t>
+  </si>
+  <si>
+    <t>/agile/charts/burndownchart</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>fd_report-9</t>
+  </si>
+  <si>
     <t>敏捷报表</t>
   </si>
   <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NHB4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg0IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAyPC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiYDmnInmiqXooajvvI3nh4PlsL3lm74iIHRyYW5zZm9ybT0idHJhbnNsYXRlKC00OC4wMDAwMDAsIC00Mi4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIj4KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNDMuMTgzNjczNSIgeT0iMCIgd2lkdGg9IjI0LjQwODE2MzMiIGhlaWdodD0iMTA2IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjEwNS4xNDI4NTciIHk9IjAiIHdpZHRoPSIyNC40MDgxNjMzIiBoZWlnaHQ9IjEwNiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuOTM4Nzc1NTEsMTA1IEwxODMuMzg5NTg1LDEwNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw3OSBMMTgzLjIyNTQwNSw3OSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw1MyBMMTgzLjIyNTQwNSw1MyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwyNyBMMTgzLjIyNTQwNSwyNyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwxIEwxODMuMjI1NDA1LDEiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTUuNzg2NDM5NTMsMy41MzE5MTQ4OSBMMTc3LjI4NzQxNCwxMDIuNDY4MDg1IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNy4yNTc2MTg3NCw1IEw0NS4wMzk3NjQ0LDEzLjg1MDQwNDcgQzQ1LjU3ODkyMTcsMTMuOTc2NzAxNSA0Ni4wNDE1ODUsMTQuMzIwODgyNiA0Ni4zMTc1NTM5LDE0LjgwMDk2ODcgTDY2LjU4MTczODMsNTAuMDUzMzIxNSBDNjcuMDExNjk4NSw1MC44MDEyOTY3IDY3Ljg3MjgzNzQsNTEuMTg5MjU1IDY4LjcxNzk1MjYsNTEuMDE1NzIzOSBMMTEyLjMzMjI4Myw0Mi4wNjAyMDMgQzExMy4yNzYyMSw0MS44NjYzODIyIDExNC4yMjQxNDIsNDIuMzczMjA5OCAxMTQuNTg3MTg3LDQzLjI2NTgyNjEgTDEzNi40NzM4MzcsOTcuMDc4Mjg5NSBDMTM2Ljc0MjQ0LDk3LjczODY5ODggMTM3LjM0MjI4Nyw5OC4yMDYxOTAyIDEzOC4wNDgzMDEsOTguMzA1MzQ4MyBMMTc4LjU5NDY3NCwxMDQiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-  </si>
-  <si>
-    <t>燃尽图</t>
-  </si>
-  <si>
-    <t>Burndown Chart</t>
-  </si>
-  <si>
-    <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
-  </si>
-  <si>
-    <t>Track the total work remaining and project the likelihood of achieving the sprint goal. This helps your team manage its progress and respond accordingly.</t>
-  </si>
-  <si>
-    <t>/agile/charts/burndownchart</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>fd_report-9</t>
-  </si>
-  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NXB4IiBoZWlnaHQ9IjEwN3B4IiB2aWV3Qm94PSIwIDAgMTg1IDEwNyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IuaKpeWRiu+8jeaJgOacieaKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTYyNS4wMDAwMDAsIC0yNzkuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDYuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNjYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgODIuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTguMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjIzLjQxMzM5OTIiIHk9IjAiIHdpZHRoPSIxMy4yMzM2NjA0IiBoZWlnaHQ9IjUwIiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNTcuMDA2NTM3MiIgeT0iMCIgd2lkdGg9IjEzLjIzMzY2MDQiIGhlaWdodD0iNTAiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuNTA4OTg2OTM5LDQ5LjUyODMwMTkgTDk5LjQzMDQ4NDQsNDkuNTI4MzAxOSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLjQxOTk3MTI4NiwzNy4yNjQxNTA5IEw5OS4zNDE0Njg3LDM3LjI2NDE1MDkiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC40MTk5NzEyODYsMjUgTDk5LjM0MTQ2ODcsMjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC40MTk5NzEyODYsMTIuNzM1ODQ5MSBMOTkuMzQxNDY4NywxMi43MzU4NDkxIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuNDE5OTcxMjg2LDAuNDcxNjk4MTEzIEw5OS4zNDE0Njg3LDAuNDcxNjk4MTEzIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMuMTM3MzAxODUsMS42NjU5OTc1OSBMOTYuMTIxOTk4Niw0OC4zMzQwMDI0IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zLjkzNDk0ODM1LDIuMzU4NDkwNTcgTDI0LjA2NTY5MTMsNi40NjEwNTY1IEMyNC41ODU3NjQyLDYuNTY3MDQ1MzEgMjUuMDQyMzc5LDYuODc1NDEzNTIgMjUuMzM0OTY5OCw3LjMxODI0NTQgTDM1Ljc2NDcwMTgsMjMuMTAzNDkyNSBDMzYuMjA0ODU4OCwyMy43Njk2NjM2IDM2Ljk5OTA3MDMsMjQuMTEwMjA4MSAzNy43ODUwNzY5LDIzLjk2OTc5NTEgTDYwLjI3NDc1ODYsMTkuOTUyMjE4MiBDNjEuMTY2NzkxMiwxOS43OTI4NjQ3IDYyLjA1NDUwNTEsMjAuMjUzMTY1MyA2Mi40MzgyNjMsMjEuMDc0MDQ2MyBMNzMuNzU5NTk5MSw0NS4yOTEwNTYgQzc0LjA1MTU0ODYsNDUuOTE1NTUzMyA3NC42NDQ1MzM2LDQ2LjM0NTY3NTMgNzUuMzI4ODE0NSw0Ni40MjkyODczIEw5Ni44MzA3NzA4LDQ5LjA1NjYwMzgiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
@@ -2028,7 +2028,7 @@
     <t>迭代速度图</t>
   </si>
   <si>
-    <t>Velocity Chart</t>
+    <t>Iterative Velocity Chart</t>
   </si>
   <si>
     <t>跟踪各个迭代已完成的工时量。这有助于您确定团队的开发速度并预估在未来迭代中能完成的工作量。</t>
@@ -2153,12 +2153,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="39">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2187,12 +2187,6 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2239,6 +2233,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2248,7 +2249,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2262,53 +2324,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2329,14 +2355,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2345,25 +2363,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2377,23 +2378,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2417,13 +2405,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
@@ -2436,12 +2417,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2485,7 +2460,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2497,37 +2550,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2539,37 +2568,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2581,13 +2580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,7 +2604,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2617,55 +2622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2772,11 +2747,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2792,21 +2808,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2830,33 +2831,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2872,153 +2847,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3026,7 +3001,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3034,44 +3008,44 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3084,7 +3058,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3487,8 +3461,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.3555555555556" style="9" customWidth="1"/>
+    <col min="1" max="1" width="15.5703703703704" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3555555555556" style="8" customWidth="1"/>
     <col min="3" max="3" width="28.0666666666667" customWidth="1"/>
     <col min="4" max="4" width="35.3555555555556" style="5" customWidth="1"/>
     <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
@@ -3504,79 +3478,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="10"/>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="9"/>
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="13"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3584,56 +3558,56 @@
       </c>
     </row>
     <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="27" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3643,30 +3617,30 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="5" t="s">
@@ -3674,7 +3648,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5" t="s">
@@ -3682,25 +3656,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="36" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3725,8 +3699,8 @@
   <sheetPr/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3806,7 +3780,7 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>63</v>
       </c>
       <c r="O7" t="s">
@@ -3817,26 +3791,24 @@
       <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8"/>
+      <c r="G8" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" t="s">
         <v>67</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>68</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" t="s">
         <v>71</v>
-      </c>
-      <c r="L8" t="s">
-        <v>72</v>
       </c>
       <c r="M8" s="5">
         <v>10</v>
@@ -3845,15 +3817,15 @@
         <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="5:15">
       <c r="E9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" t="s">
         <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>75</v>
@@ -3880,7 +3852,7 @@
         <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="5:15">
@@ -3888,7 +3860,7 @@
         <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>82</v>
@@ -3915,7 +3887,7 @@
         <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="5:15">
@@ -3923,7 +3895,7 @@
         <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>89</v>
@@ -3950,7 +3922,7 @@
         <v>20</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="5:15">
@@ -3958,7 +3930,7 @@
         <v>95</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>96</v>
@@ -3985,7 +3957,7 @@
         <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="5:15">
@@ -3993,7 +3965,7 @@
         <v>102</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>103</v>
@@ -4020,7 +3992,7 @@
         <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="5:15">
@@ -4028,9 +4000,9 @@
         <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>110</v>
       </c>
       <c r="H14" t="s">
@@ -4055,7 +4027,7 @@
         <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="5:15">
@@ -4063,7 +4035,7 @@
         <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>117</v>
@@ -4090,7 +4062,7 @@
         <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="5:15">
@@ -4098,7 +4070,7 @@
         <v>123</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>124</v>
@@ -4125,7 +4097,7 @@
         <v>20</v>
       </c>
       <c r="O16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:12">

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -2153,10 +2153,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2236,15 +2236,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2256,7 +2270,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2264,38 +2278,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2317,38 +2308,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2363,6 +2323,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -2370,6 +2345,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2377,8 +2376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,13 +2460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2478,7 +2478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,19 +2496,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2520,7 +2526,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2532,55 +2610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,55 +2622,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,6 +2747,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2764,20 +2775,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2797,17 +2797,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2827,168 +2830,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3699,8 +3699,8 @@
   <sheetPr/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3791,7 +3791,6 @@
       <c r="E8" t="s">
         <v>65</v>
       </c>
-      <c r="F8"/>
       <c r="G8" s="5" t="s">
         <v>66</v>
       </c>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
   <si>
     <r>
       <rPr>
@@ -1905,6 +1905,9 @@
     <t>icon</t>
   </si>
   <si>
+    <t>#code</t>
+  </si>
+  <si>
     <t>title:zh_CN</t>
   </si>
   <si>
@@ -1935,6 +1938,9 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NHB4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg0IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAyPC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiYDmnInmiqXooajvvI3nh4PlsL3lm74iIHRyYW5zZm9ybT0idHJhbnNsYXRlKC00OC4wMDAwMDAsIC00Mi4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIj4KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNDMuMTgzNjczNSIgeT0iMCIgd2lkdGg9IjI0LjQwODE2MzMiIGhlaWdodD0iMTA2IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjEwNS4xNDI4NTciIHk9IjAiIHdpZHRoPSIyNC40MDgxNjMzIiBoZWlnaHQ9IjEwNiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuOTM4Nzc1NTEsMTA1IEwxODMuMzg5NTg1LDEwNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw3OSBMMTgzLjIyNTQwNSw3OSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw1MyBMMTgzLjIyNTQwNSw1MyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwyNyBMMTgzLjIyNTQwNSwyNyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwxIEwxODMuMjI1NDA1LDEiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTUuNzg2NDM5NTMsMy41MzE5MTQ4OSBMMTc3LjI4NzQxNCwxMDIuNDY4MDg1IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNy4yNTc2MTg3NCw1IEw0NS4wMzk3NjQ0LDEzLjg1MDQwNDcgQzQ1LjU3ODkyMTcsMTMuOTc2NzAxNSA0Ni4wNDE1ODUsMTQuMzIwODgyNiA0Ni4zMTc1NTM5LDE0LjgwMDk2ODcgTDY2LjU4MTczODMsNTAuMDUzMzIxNSBDNjcuMDExNjk4NSw1MC44MDEyOTY3IDY3Ljg3MjgzNzQsNTEuMTg5MjU1IDY4LjcxNzk1MjYsNTEuMDE1NzIzOSBMMTEyLjMzMjI4Myw0Mi4wNjAyMDMgQzExMy4yNzYyMSw0MS44NjYzODIyIDExNC4yMjQxNDIsNDIuMzczMjA5OCAxMTQuNTg3MTg3LDQzLjI2NTgyNjEgTDEzNi40NzM4MzcsOTcuMDc4Mjg5NSBDMTM2Ljc0MjQ0LDk3LjczODY5ODggMTM3LjM0MjI4Nyw5OC4yMDYxOTAyIDEzOC4wNDgzMDEsOTguMzA1MzQ4MyBMMTc4LjU5NDY3NCwxMDQiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
+    <t>burndown</t>
+  </si>
+  <si>
     <t>燃尽图</t>
   </si>
   <si>
@@ -1962,6 +1968,9 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NXB4IiBoZWlnaHQ9IjEwN3B4IiB2aWV3Qm94PSIwIDAgMTg1IDEwNyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IuaKpeWRiu+8jeaJgOacieaKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTYyNS4wMDAwMDAsIC0yNzkuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDYuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNjYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgODIuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTguMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjIzLjQxMzM5OTIiIHk9IjAiIHdpZHRoPSIxMy4yMzM2NjA0IiBoZWlnaHQ9IjUwIiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNTcuMDA2NTM3MiIgeT0iMCIgd2lkdGg9IjEzLjIzMzY2MDQiIGhlaWdodD0iNTAiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuNTA4OTg2OTM5LDQ5LjUyODMwMTkgTDk5LjQzMDQ4NDQsNDkuNTI4MzAxOSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLjQxOTk3MTI4NiwzNy4yNjQxNTA5IEw5OS4zNDE0Njg3LDM3LjI2NDE1MDkiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC40MTk5NzEyODYsMjUgTDk5LjM0MTQ2ODcsMjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC40MTk5NzEyODYsMTIuNzM1ODQ5MSBMOTkuMzQxNDY4NywxMi43MzU4NDkxIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuNDE5OTcxMjg2LDAuNDcxNjk4MTEzIEw5OS4zNDE0Njg3LDAuNDcxNjk4MTEzIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMuMTM3MzAxODUsMS42NjU5OTc1OSBMOTYuMTIxOTk4Niw0OC4zMzQwMDI0IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zLjkzNDk0ODM1LDIuMzU4NDkwNTcgTDI0LjA2NTY5MTMsNi40NjEwNTY1IEMyNC41ODU3NjQyLDYuNTY3MDQ1MzEgMjUuMDQyMzc5LDYuODc1NDEzNTIgMjUuMzM0OTY5OCw3LjMxODI0NTQgTDM1Ljc2NDcwMTgsMjMuMTAzNDkyNSBDMzYuMjA0ODU4OCwyMy43Njk2NjM2IDM2Ljk5OTA3MDMsMjQuMTEwMjA4MSAzNy43ODUwNzY5LDIzLjk2OTc5NTEgTDYwLjI3NDc1ODYsMTkuOTUyMjE4MiBDNjEuMTY2NzkxMiwxOS43OTI4NjQ3IDYyLjA1NDUwNTEsMjAuMjUzMTY1MyA2Mi40MzgyNjMsMjEuMDc0MDQ2MyBMNzMuNzU5NTk5MSw0NS4yOTEwNTYgQzc0LjA1MTU0ODYsNDUuOTE1NTUzMyA3NC42NDQ1MzM2LDQ2LjM0NTY3NTMgNzUuMzI4ODE0NSw0Ni40MjkyODczIEw5Ni44MzA3NzA4LDQ5LjA1NjYwMzgiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
+    <t>sprint</t>
+  </si>
+  <si>
     <t>冲刺报告图</t>
   </si>
   <si>
@@ -1983,10 +1992,13 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NHB4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg0IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxMjwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSJQYWdlLTEiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXlkYrvvI3miYDmnInmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MjguMDAwMDAwLCAtMjc2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeJiOacrOaKpeWRiiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNjA4LjAwMDAwMCwgMTAyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTEyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxNi4wMDAwMDAsIDI0LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IkdyaWQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJMaW5lcyIgb3BhY2l0eT0iMC4zNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4xNjU3NjgsIDAuMjkwNjcxKSI+PC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSLmqKoiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAzODE4LCAwLjI0NTM3MikiIGZpbGw9IiNFRUVFRUUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTI3MiIgeD0iMCIgeT0iMTA0LjcyMDk0NSIgd2lkdGg9IjE4My42NzA4MTIiIGhlaWdodD0iMSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTI3Mi1Db3B5IiB4PSIwIiB5PSI4Ni43ODk5MjI0IiB3aWR0aD0iMTgzLjY3MDgxMiIgaGVpZ2h0PSIxIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMjcyLUNvcHktMiIgeD0iMCIgeT0iNjkuNDU2NjAwOSIgd2lkdGg9IjE4My42NzA4MTIiIGhlaWdodD0iMSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTI3Mi1Db3B5LTMiIHg9IjAiIHk9IjUyLjEyMzI3OTUiIHdpZHRoPSIxODMuNjcwODEyIiBoZWlnaHQ9IjEiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0yNzItQ29weS00IiB4PSIwIiB5PSIzNC4xOTIyNTczIiB3aWR0aD0iMTgzLjY3MDgxMiIgaGVpZ2h0PSIxIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMjcyLUNvcHktNSIgeD0iMCIgeT0iMTYuODU4OTM1OCIgd2lkdGg9IjE4My42NzA4MTIiIGhlaWdodD0iMSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTI3MiIgeD0iMCIgeT0iMCIgd2lkdGg9IjE4My42NzA4MTIiIGhlaWdodD0iMSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDUuMDAwMDAwKSIgZmlsbC1vcGFjaXR5PSIwLjIiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDU1LjU5MTcxMykiIGZpbGw9IiMwMEJGQTUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMCw0NS4wOTkyNDk0IEwyMC4wODM1NDM1LDQzLjUxNTc0NjcgQzIwLjQwNzgyNzcsNDMuNDkwMTc4MyAyMC43MzI2MTc5LDQzLjQ3MTQ5MjMgMjEuMDU3Njk0Nyw0My40NTk3MDEzIEw0NC42OTY1Nzg2LDQyLjYwMjI4ODggQzQ2Ljk3OTQ4NzEsNDIuNTE5NDg0OCA0OS4yMzczMjI1LDQyLjA5NzAzOCA1MS4zOTU3Mzc3LDQxLjM0ODg1OTEgTDc4LjU1OTQwMDIsMzEuOTMzMDI0IEM4MC42NjM0MzgsMzEuMjAzNjk0MSA4Mi44NjIyNDEzLDMwLjc4Mzc5MDUgODUuMDg2OTcxMywzMC42ODY0NTk1IEwxMDEuMDA4MDc3LDI5Ljk4OTkxNzQgQzEwMi44OTU1ODMsMjkuOTA3MzM5OCAxMDQuNzY1NzIzLDI5LjU5MjUwOTMgMTA2LjU3NjIyOSwyOS4wNTI1NDE2IEwxMTguNzg1NzU0LDI1LjQxMTE1NjcgQzEyMi4xOTQxNSwyNC4zOTQ2MzE5IDEyNS4zMjAzNTIsMjIuNjAxNDc4MSAxMjcuOTE4NjU2LDIwLjE3MjYyODQgTDEzOS4zNDg4MTUsOS40ODc5MDk1MyBDMTQyLjQ0NjU1Miw2LjU5MjE5NzA0IDE0Ni4yODQ1MTYsNC42MDkyMjQwOSAxNTAuNDM4NjM2LDMuNzU4MDk2NjggTDE2Mi45NTMxODYsMS4xOTQwMjEzMSBDMTY0LjU5OTQyMSwwLjg1NjcyODIwOSAxNjYuMjc3NjYzLDAuNzAwODY1OTYzIDE2Ny45NTc4NTcsMC43MjkyMjU4NCBMMTg0LDEgTDE4NCw0NS4wOTkyNDk0IiBpZD0iUGF0aC01Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0zMiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDQ0LjM0Nzk5MykiIGZpbGw9IiNGNEI0MDAiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTg0LDEyLjI0MzcxOTQgTDE2Ny45NTc4NTcsMTEuOTcyOTQ1MiBDMTY2LjI3NzY2MywxMS45NDQ1ODUzIDE2NC41OTk0MjEsMTIuMTAwNDQ3NiAxNjIuOTUzMTg2LDEyLjQzNzc0MDcgTDE1MC40Mzg2MzYsMTUuMDAxODE2MSBDMTQ2LjI4NDUxNiwxNS44NTI5NDM1IDE0Mi40NDY1NTIsMTcuODM1OTE2NCAxMzkuMzQ4ODE1LDIwLjczMTYyODkgTDEyNy45MTg2NTYsMzEuNDE2MzQ3NyBDMTI1LjMyMDM1MiwzMy44NDUxOTc0IDEyMi4xOTQxNSwzNS42MzgzNTEzIDExOC43ODU3NTQsMzYuNjU0ODc2MSBMMTA2LjU3NjIyOSw0MC4yOTYyNjA5IEMxMDQuNzY1NzIzLDQwLjgzNjIyODcgMTAyLjg5NTU4Myw0MS4xNTEwNTkyIDEwMS4wMDgwNzcsNDEuMjMzNjM2OCBMODUuMDg2OTcxMyw0MS45MzAxNzg4IEM4Mi44NjIyNDEzLDQyLjAyNzUwOTkgODAuNjYzNDM4LDQyLjQ0NzQxMzQgNzguNTU5NDAwMiw0My4xNzY3NDM0IEw1MS4zOTU3Mzc3LDUyLjU5MjU3ODQgQzQ5LjIzNzMyMjUsNTMuMzQwNzU3NCA0Ni45Nzk0ODcxLDUzLjc2MzIwNDIgNDQuNjk2NTc4Niw1My44NDYwMDgyIEwyMS4wNTc2OTQ3LDU0LjcwMzQyMDcgQzIwLjczMjYxNzksNTQuNzE1MjExNiAyMC40MDc4Mjc3LDU0LjczMzg5NzYgMjAuMDgzNTQzNSw1NC43NTk0NjYxIEwwLDU2LjM0Mjk2ODggTDAsNDkuMDk5MjQ5NCBMMTkuOTQ5NzM4NCw0Ni41NTY0NTE1IEMyMC4zNjMxODYxLDQ2LjUwMzc1MzQgMjAuNzc3OTg5OSw0Ni40NjIzMDM0IDIxLjE5MzY5MDIsNDYuNDMyMTQ3NCBMNDQuNTE1Njg4Nyw0NC43NDAzMTAxIEM0Ni45MTcwMzU1LDQ0LjU2NjExMDMgNDkuMjc2MTM5MSw0NC4wMTU5NDI3IDUxLjUwNjgxNDEsNDMuMTA5OTA2NyBMNzguMDUxMzMyMSwzMi4zMjgyODcyIEM4MC40ODcxOTg5LDMxLjMzODkwODIgODMuMDc0NjY3OSwzMC43NzQ0OTY5IDg1LjcwMTI4NDEsMzAuNjU5NTgzNSBMMTAwLjQ4MTU3MSwzMC4wMTI5NTE5IEMxMDIuNzE1MzM0LDI5LjkxNTIyNTYgMTA0LjkyMjkxMiwyOS40OTIzMDQxIDEwNy4wMzQ2MzIsMjguNzU3NTM0NyBMMTE5LjY4MTQzOSwyNC4zNTcxMDA5IEMxMjIuNTExODk0LDIzLjM3MjI0OTIgMTI1LjEyMjU5NCwyMS44NDM3Mjc1IDEyNy4zNjY3NDgsMTkuODU3NDgwMSBMMTM5LjQ4MjAxLDkuMTM0NTUxMjUgQzE0Mi40OTgzNzcsNi40NjQ4MzY1MSAxNDYuMTYyOTkzLDQuNjM0MTIyNzQgMTUwLjEwOTE0OSwzLjgyNTYwNDUyIEwxNjIuOTUzMTg2LDEuMTk0MDIxMzEgQzE2NC41OTk0MjEsMC44NTY3MjgyMDkgMTY2LjI3NzY2MywwLjcwMDg2NTk2MyAxNjcuOTU3ODU3LDAuNzI5MjI1ODQgTDE4NCwxIEwxODQsMTIuMjQzNzE5NCBaIiBpZD0iQ29tYmluZWQtU2hhcGUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTMyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzMuNTQyMDg4KSIgZmlsbD0iI0Y0NDMzNiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xODQsMTIuMjQzNzE5NCBMMTY3Ljk1Nzg1NywxMS45NzI5NDUyIEMxNjYuMjc3NjYzLDExLjk0NDU4NTMgMTY0LjU5OTQyMSwxMi4xMDA0NDc2IDE2Mi45NTMxODYsMTIuNDM3NzQwNyBMMTUwLjEwOTE0OSwxNS4wNjkzMjM5IEMxNDYuMTYyOTkzLDE1Ljg3Nzg0MjEgMTQyLjQ5ODM3NywxNy43MDg1NTU5IDEzOS40ODIwMSwyMC4zNzgyNzA2IEwxMjcuMzY2NzQ4LDMxLjEwMTE5OTQgQzEyNS4xMjI1OTQsMzMuMDg3NDQ2OSAxMjIuNTExODk0LDM0LjYxNTk2ODYgMTE5LjY4MTQzOSwzNS42MDA4MjAzIEwxMDcuMDM0NjMyLDQwLjAwMTI1NCBDMTA0LjkyMjkxMiw0MC43MzYwMjM1IDEwMi43MTUzMzQsNDEuMTU4OTQ1IDEwMC40ODE1NzEsNDEuMjU2NjcxMiBMODUuNzAxMjg0MSw0MS45MDMzMDI5IEM4My4wNzQ2Njc5LDQyLjAxODIxNjMgODAuNDg3MTk4OSw0Mi41ODI2Mjc2IDc4LjA1MTMzMjEsNDMuNTcyMDA2NiBMNTEuNTA2ODE0MSw1NC4zNTM2MjYxIEM0OS4yNzYxMzkxLDU1LjI1OTY2MjEgNDYuOTE3MDM1NSw1NS44MDk4Mjk2IDQ0LjUxNTY4ODcsNTUuOTg0MDI5NSBMMjEuMTkzNjkwMiw1Ny42NzU4NjY4IEMyMC43Nzc5ODk5LDU3LjcwNjAyMjggMjAuMzYzMTg2MSw1Ny43NDc0NzI4IDE5Ljk0OTczODQsNTcuODAwMTcwOSBMMCw2MC4zNDI5Njg4IEwwLDUyLjA5OTI0OTQgTDIwLjM3MjYzMDMsNDkuNTAyNTQ5NyBDMjAuNTA0MjI0LDQ5LjQ4NTc3NjcgMjAuNjM1NjcwMiw0OS40Njc4NjU1IDIwLjc2Njk1NCw0OS40NDg4MTgyIEw0NS4wODI5NDM3LDQ1LjkyMDkzMDIgQzQ3LjExMTkwNDgsNDUuNjI2NTU4MiA0OS4wOTIzOTgsNDUuMDYyMjIyNyA1MC45NzE3ODI3LDQ0LjI0MjkyMzUgTDc3LjgxNTE4NSwzMi41NDA4MDgxIEM4MC40MDQzNjcyLDMxLjQxMjA3OTcgODMuMTc5MzA5MiwzMC43Njk5MTg5IDg2LjAwMTEyNjMsMzAuNjQ2NDY1NSBMMTAwLjQ4MTU3MSwzMC4wMTI5NTE5IEMxMDIuNzE1MzM0LDI5LjkxNTIyNTYgMTA0LjkyMjkxMiwyOS40OTIzMDQxIDEwNy4wMzQ2MzIsMjguNzU3NTM0NyBMMTE5LjY4MTQzOSwyNC4zNTcxMDA5IEMxMjIuNTExODk0LDIzLjM3MjI0OTIgMTI1LjEyMjU5NCwyMS44NDM3Mjc1IDEyNy4zNjY3NDgsMTkuODU3NDgwMSBMMTM5LjQ4MjAxLDkuMTM0NTUxMjUgQzE0Mi40OTgzNzcsNi40NjQ4MzY1MSAxNDYuMTYyOTkzLDQuNjM0MTIyNzQgMTUwLjEwOTE0OSwzLjgyNTYwNDUyIEwxNjIuOTUzMTg2LDEuMTk0MDIxMzEgQzE2NC41OTk0MjEsMC44NTY3MjgyMDkgMTY2LjI3NzY2MywwLjcwMDg2NTk2MyAxNjcuOTU3ODU3LDAuNzI5MjI1ODQgTDE4NCwxIEwxODQsMTIuMjQzNzE5NCBaIiBpZD0iQ29tYmluZWQtU2hhcGUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTMyIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMjIuNzM2MTgzKSIgZmlsbD0iIzREOTBGRSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xODQsMTIuMjQzNzE5NCBMMTY3Ljk1Nzg1NywxMS45NzI5NDUyIEMxNjYuMjc3NjYzLDExLjk0NDU4NTMgMTY0LjU5OTQyMSwxMi4xMDA0NDc2IDE2Mi45NTMxODYsMTIuNDM3NzQwNyBMMTUwLjEwOTE0OSwxNS4wNjkzMjM5IEMxNDYuMTYyOTkzLDE1Ljg3Nzg0MjEgMTQyLjQ5ODM3NywxNy43MDg1NTU5IDEzOS40ODIwMSwyMC4zNzgyNzA2IEwxMjcuMzY2NzQ4LDMxLjEwMTE5OTQgQzEyNS4xMjI1OTQsMzMuMDg3NDQ2OSAxMjIuNTExODk0LDM0LjYxNTk2ODYgMTE5LjY4MTQzOSwzNS42MDA4MjAzIEwxMDcuMDM0NjMyLDQwLjAwMTI1NCBDMTA0LjkyMjkxMiw0MC43MzYwMjM1IDEwMi43MTUzMzQsNDEuMTU4OTQ1IDEwMC40ODE1NzEsNDEuMjU2NjcxMiBMODYuMDAxMTI2Myw0MS44OTAxODQ5IEM4My4xNzkzMDkyLDQyLjAxMzYzODMgODAuNDA0MzY3Miw0Mi42NTU3OTkxIDc3LjgxNTE4NSw0My43ODQ1Mjc1IEw1MC45NzE3ODI3LDU1LjQ4NjY0MjkgQzQ5LjA5MjM5OCw1Ni4zMDU5NDIxIDQ3LjExMTkwNDgsNTYuODcwMjc3NSA0NS4wODI5NDM3LDU3LjE2NDY0OTYgTDIwLjc2Njk1NCw2MC42OTI1Mzc2IEMyMC42MzU2NzAyLDYwLjcxMTU4NDkgMjAuNTA0MjI0LDYwLjcyOTQ5NjEgMjAuMzcyNjMwMyw2MC43NDYyNjkgTDAsNjMuMzQyOTY4OCBMMCw1NC4wOTkyNDk0IEwyMC4zNzI2MzAzLDUxLjUwMjU0OTcgQzIwLjUwNDIyNCw1MS40ODU3NzY3IDIwLjYzNTY3MDIsNTEuNDY3ODY1NSAyMC43NjY5NTQsNTEuNDQ4ODE4MiBMNDQuNTE0MTMzMyw0OC4wMDM0NTYxIEM0Ni45MTYyNjY3LDQ3LjY1NDk0MjMgNDkuMjQ4MDkwOCw0Ni45MjgzNzk3IDUxLjQyMzAzOTQsNDUuODUwNzQwOCBMNzcuMzc5MzY2MiwzMi45ODk5NTYgQzgwLjI0OTU4NTksMzEuNTY3ODI1OCA4My4zODUyMTYxLDMwLjc2MDkxMDYgODYuNTg1Mzc0NSwzMC42MjA5MDQ5IEwxMDAuNDgxNTcxLDMwLjAxMjk1MTkgQzEwMi43MTUzMzQsMjkuOTE1MjI1NiAxMDQuOTIyOTEyLDI5LjQ5MjMwNDEgMTA3LjAzNDYzMiwyOC43NTc1MzQ3IEwxMTkuNjgxNDM5LDI0LjM1NzEwMDkgQzEyMi41MTE4OTQsMjMuMzcyMjQ5MiAxMjUuMTIyNTk0LDIxLjg0MzcyNzUgMTI3LjM2Njc0OCwxOS44NTc0ODAxIEwxMzkuNDgyMDEsOS4xMzQ1NTEyNSBDMTQyLjQ5ODM3Nyw2LjQ2NDgzNjUxIDE0Ni4xNjI5OTMsNC42MzQxMjI3NCAxNTAuMTA5MTQ5LDMuODI1NjA0NTIgTDE2Mi45NTMxODYsMS4xOTQwMjEzMSBDMTY0LjU5OTQyMSwwLjg1NjcyODIwOSAxNjYuMjc3NjYzLDAuNzAwODY1OTYzIDE2Ny45NTc4NTcsMC43MjkyMjU4NCBMMTg0LDEgTDE4NCwxMi4yNDM3MTk0IFoiIGlkPSJDb21iaW5lZC1TaGFwZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMzIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCAxMS4zNjgwOTEpIiBmaWxsPSIjRjk1M0JBIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE4NCwxMi4yNDM3MTk0IEwxNjcuOTU3ODU3LDExLjk3Mjk0NTIgQzE2Ni4yNzc2NjMsMTEuOTQ0NTg1MyAxNjQuNTk5NDIxLDEyLjEwMDQ0NzYgMTYyLjk1MzE4NiwxMi40Mzc3NDA3IEwxNTAuMTA5MTQ5LDE1LjA2OTMyMzkgQzE0Ni4xNjI5OTMsMTUuODc3ODQyMSAxNDIuNDk4Mzc3LDE3LjcwODU1NTkgMTM5LjQ4MjAxLDIwLjM3ODI3MDYgTDEyNy4zNjY3NDgsMzEuMTAxMTk5NCBDMTI1LjEyMjU5NCwzMy4wODc0NDY5IDEyMi41MTE4OTQsMzQuNjE1OTY4NiAxMTkuNjgxNDM5LDM1LjYwMDgyMDMgTDEwNy4wMzQ2MzIsNDAuMDAxMjU0IEMxMDQuOTIyOTEyLDQwLjczNjAyMzUgMTAyLjcxNTMzNCw0MS4xNTg5NDUgMTAwLjQ4MTU3MSw0MS4yNTY2NzEyIEw4Ni41ODUzNzQ1LDQxLjg2NDYyNDMgQzgzLjM4NTIxNjEsNDIuMDA0NjI5OSA4MC4yNDk1ODU5LDQyLjgxMTU0NTIgNzcuMzc5MzY2Miw0NC4yMzM2NzU0IEw1MS40MjMwMzk0LDU3LjA5NDQ2MDIgQzQ5LjI0ODA5MDgsNTguMTcyMDk5IDQ2LjkxNjI2NjcsNTguODk4NjYxNyA0NC41MTQxMzMzLDU5LjI0NzE3NTUgTDIwLjc2Njk1NCw2Mi42OTI1Mzc2IEMyMC42MzU2NzAyLDYyLjcxMTU4NDkgMjAuNTA0MjI0LDYyLjcyOTQ5NjEgMjAuMzcyNjMwMyw2Mi43NDYyNjkgTDAsNjUuMzQyOTY4OCBMMCw1Ny4wOTkyNDk0IEwyMC4xMDMwNTk0LDUyLjU4MjMxMTcgQzIwLjQxNDMzNTgsNTIuNTEyMzcxMyAyMC43MjcwMzM4LDUyLjQ0ODkxNTEgMjEuMDQwOTUwMiw1Mi4zOTE5ODQ0IEw0NC45NDM3NDgyLDQ4LjA1NzA1OTMgQzQ3LjA2NDA5MzcsNDcuNjcyNTIxMSA0OS4xMTk4NzcsNDYuOTkxOTA2NyA1MS4wNTA3ODc0LDQ2LjAzNTE4MzQgTDc3LjM3OTM2NjIsMzIuOTg5OTU2IEM4MC4yNDk1ODU5LDMxLjU2NzgyNTggODMuMzg1MjE2MSwzMC43NjA5MTA2IDg2LjU4NTM3NDUsMzAuNjIwOTA0OSBMMTAwLjQ4MTU3MSwzMC4wMTI5NTE5IEMxMDIuNzE1MzM0LDI5LjkxNTIyNTYgMTA0LjkyMjkxMiwyOS40OTIzMDQxIDEwNy4wMzQ2MzIsMjguNzU3NTM0NyBMMTE5LjY4MTQzOSwyNC4zNTcxMDA5IEMxMjIuNTExODk0LDIzLjM3MjI0OTIgMTI1LjEyMjU5NCwyMS44NDM3Mjc1IDEyNy4zNjY3NDgsMTkuODU3NDgwMSBMMTM5LjQ4MjAxLDkuMTM0NTUxMjUgQzE0Mi40OTgzNzcsNi40NjQ4MzY1MSAxNDYuMTYyOTkzLDQuNjM0MTIyNzQgMTUwLjEwOTE0OSwzLjgyNTYwNDUyIEwxNjIuOTUzMTg2LDEuMTk0MDIxMzEgQzE2NC41OTk0MjEsMC44NTY3MjgyMDkgMTY2LjI3NzY2MywwLjcwMDg2NTk2MyAxNjcuOTU3ODU3LDAuNzI5MjI1ODQgTDE4NCwxIEwxODQsMTIuMjQzNzE5NCBaIiBpZD0iQ29tYmluZWQtU2hhcGUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTMyIiBmaWxsPSIjNzQzQkU3Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE4NCwxMi4yNDM3MTk0IEwxNjcuOTU3ODU3LDExLjk3Mjk0NTIgQzE2Ni4yNzc2NjMsMTEuOTQ0NTg1MyAxNjQuNTk5NDIxLDEyLjEwMDQ0NzYgMTYyLjk1MzE4NiwxMi40Mzc3NDA3IEwxNTAuMTA5MTQ5LDE1LjA2OTMyMzkgQzE0Ni4xNjI5OTMsMTUuODc3ODQyMSAxNDIuNDk4Mzc3LDE3LjcwODU1NTkgMTM5LjQ4MjAxLDIwLjM3ODI3MDYgTDEyNy4zNjY3NDgsMzEuMTAxMTk5NCBDMTI1LjEyMjU5NCwzMy4wODc0NDY5IDEyMi41MTE4OTQsMzQuNjE1OTY4NiAxMTkuNjgxNDM5LDM1LjYwMDgyMDMgTDEwNy4wMzQ2MzIsNDAuMDAxMjU0IEMxMDQuOTIyOTEyLDQwLjczNjAyMzUgMTAyLjcxNTMzNCw0MS4xNTg5NDUgMTAwLjQ4MTU3MSw0MS4yNTY2NzEyIEw4Ni41ODUzNzQ1LDQxLjg2NDYyNDMgQzgzLjM4NTIxNjEsNDIuMDA0NjI5OSA4MC4yNDk1ODU5LDQyLjgxMTU0NTIgNzcuMzc5MzY2Miw0NC4yMzM2NzU0IEw1MS4wNTA3ODc0LDU3LjI3ODkwMjggQzQ5LjExOTg3Nyw1OC4yMzU2MjYxIDQ3LjA2NDA5MzcsNTguOTE2MjQwNSA0NC45NDM3NDgyLDU5LjMwMDc3ODcgTDIxLjA0MDk1MDIsNjMuNjM1NzAzNyBDMjAuNzI3MDMzOCw2My42OTI2MzQ1IDIwLjQxNDMzNTgsNjMuNzU2MDkwNyAyMC4xMDMwNTk0LDYzLjgyNjAzMTEgTDAsNjguMzQyOTY4OCBMMCw1OC4wOTkyNDk0IEwxOS42MDAwNjY0LDUyLjc0MjQ4MjcgQzIwLjI0NjM5NjUsNTIuNTY1ODM4NCAyMC45MDAxMzY5LDUyLjQxNzUyMTggMjEuNTU5NDE2OSw1Mi4yOTc5NTcxIEw0NC45NDM3NDgyLDQ4LjA1NzA1OTMgQzQ3LjA2NDA5MzcsNDcuNjcyNTIxMSA0OS4xMTk4NzcsNDYuOTkxOTA2NyA1MS4wNTA3ODc0LDQ2LjAzNTE4MzQgTDc3LjM3OTM2NjIsMzIuOTg5OTU2IEM4MC4yNDk1ODU5LDMxLjU2NzgyNTggODMuMzg1MjE2MSwzMC43NjA5MTA2IDg2LjU4NTM3NDUsMzAuNjIwOTA0OSBMOTkuOTY3NzE5MSwzMC4wMzU0MzI3IEMxMDIuNTM3Nzc1LDI5LjkyMjk5MzggMTA1LjA3MDc1NywyOS4zODAxODc1IDEwNy40NjEyMDUsMjguNDI5NjEzOSBMMTIwLjU0NjkyLDIzLjIyNjAxMjUgQzEyMi44MTMyNTMsMjIuMzI0NzkzNSAxMjQuOTIxODE5LDIxLjA2ODgzNzUgMTI2Ljc5MzU5NCwxOS41MDUyMTM5IEwxMzkuNjM2NjQzLDguNzc2NTI1NDUgQzE0Mi41NTcyLDYuMzM2NzgxNzYgMTQ2LjAzNzQ5NCw0LjY1OTgzNTkgMTQ5Ljc2NTU3MSwzLjg5NTk5OTM3IEwxNjIuOTUzMTg2LDEuMTk0MDIxMzEgQzE2NC41OTk0MjEsMC44NTY3MjgyMDkgMTY2LjI3NzY2MywwLjcwMDg2NTk2MyAxNjcuOTU3ODU3LDAuNzI5MjI1ODQgTDE4NCwxIEwxODQsMTIuMjQzNzE5NCBaIiBpZD0iQ29tYmluZWQtU2hhcGUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
   </si>
   <si>
+    <t>accumulation</t>
+  </si>
+  <si>
     <t>累积流量图</t>
   </si>
   <si>
-    <t>Cumulative Flow Diagram</t>
+    <t>cumulative</t>
   </si>
   <si>
     <t>显示状态的问题，这有助于您识别潜在的瓶颈， 需要对此进行调查。</t>
@@ -2004,6 +2016,9 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4N3B4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg3IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAyPC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IuaKpeWRiu+8jeaJgOacieaKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTMyMC4wMDAwMDAsIC01OTYuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54mI5pys5oql5ZGKIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNDIyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi43NjQwNjc2MiwxMDQuOTIwODE0IEwxODMuOTYyMjYyLDEwNC45MjA4MTQiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLjYwMTAxNDMzLDc4Ljk0MDQyMjMgTDE4My43OTkyMDgsNzguOTQwNDIyMyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIuNjAxMDE0MzMsNTIuOTYwMDMwMiBMMTgzLjc5OTIwOCw1Mi45NjAwMzAyIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMi42MDEwMTQzMywyNi45Nzk2MzggTDE4My43OTkyMDgsMjYuOTc5NjM4IiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS44MzE3MzcyNywwLjk5OTI0NTg1MiBMMTgzLjAyOTkzMSwwLjk5OTI0NTg1MiIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiBmaWxsPSIjNEQ5MEZFIiBmaWxsLW9wYWNpdHk9IjAuMTYwMDAwMDExIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlnb24gaWQ9IkxpbmUiIHBvaW50cz0iMTgyLjM0MTExOSAwIDE0NS4yMDY4MDkgMCAxNDUuMjA2ODA5IDIyLjU0Mjc1MzQgOTEuMTI4OTI5MyAyMi41NDI3NTM0IDkxLjA4NzI5ODkgNjMuMzA0OTkyMyA0NS40MTg3NTgzIDYzLjMwNDk5MjMgNDUuNDYwMzg4NyA4MS4yMTU2NzMxIDIyLjMxMzg5MDQgODEuMjE1NjczMSAyMi4zMTM4OTA0IDEwNC4zNzYwMzYgMCAxMDQuMzc2MDM2IDE4Mi4zNDExMTkgMTA0LjM3NjAzNiI+PC9wb2x5Z29uPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuMDAwMDAwLCA1Mi44MDU2MjgpIiBmaWxsPSIjRjQ0MzM2IiBmaWxsLW9wYWNpdHk9IjAuMTYwMDAwMDExIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlsaW5lIGlkPSJMaW5lLTUiIHBvaW50cz0iMTgyLjM0MTExOSA1Mi4xODgwMTgxIDgxLjA5NjAwNDcgNTIuMTg4MDE4MSA4MS4wOTYwMDQ3IDM2LjQzODk3MTIgNjMuMjc4MTk2NyAzNi40Mzg5NzEyIDYzLjI3ODE5NjcgMTYuOTg0MjY2MiAzMi40NzE3MDYyIDE2Ljk4NDI2NjIgMzIuNDcxNzA2MiAwIDUuMzI4NjkwMjUgMS41Nzk4MTcwNmUtMTMgNS4zMjg2OTAyNSA1Mi4xODgwMTgxIDkuNzc3MDY4MDRlLTEyIDUyLjE4ODAxODEiPjwvcG9seWxpbmU+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xMSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDAwMDAsIDM0LjU4NjE0MikiIGZpbGw9IiMwMEJGQTUiIGZpbGwtb3BhY2l0eT0iMC4xNjAwMDAwMTEiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iTGluZSIgcG9pbnRzPSIxODIuMjU3ODU5IDAuMTU0NDAyNDIgMTUyLjcwMDI4IDAuMTU0NDAyNDIgMTUyLjcwMDI4IDE2LjY3NTQ2MTQgMTExLjIzNjQwOSAxNi42NzU0NjE0IDExMS4yMzY0MDkgNDcuMjQ3MTQwNiA3MC4yNzIxMDI2IDQ3LjI0NzE0MDYgNzAuMjcyMTAyNiA3MC4wOTg2OTg4IDQuNjYxMTYwMzVlLTEyIDcwLjA5ODY5ODggMTgyLjI1Nzg1OSA3MC4wOTg2OTg4Ij48L3BvbHlnb24+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xODIuMjU3ODU5LDM0Ljc0MDU0NDYgTDAsMTA0LjY4NDg0MSIgaWQ9IkxpbmUiIHN0cm9rZS1vcGFjaXR5PSIwLjU5IiBzdHJva2U9IiMzRjUxQjUiIHN0cm9rZS13aWR0aD0iMiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>版本报告图</t>
   </si>
   <si>
@@ -2025,6 +2040,9 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NHB4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg0IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAxMzwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXlkYoiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXlkYrvvI3miYDmnInmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC02MjYuMDAwMDAwLCAtNTk2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbviIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzA0LjAwMDAwMCwgNDIyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTEzIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuOTM4Nzc1NTEsMTA1IEwxODMuMzg5NTg1LDEwNSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw3OSBMMTgzLjIyNTQwNSw3OSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw1MyBMMTgzLjIyNTQwNSw1MyIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwyNyBMMTgzLjIyNTQwNSwyNyIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwxIEwxODMuMjI1NDA1LDEiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iY2hhcnQiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEyLjAwMDAwMCwgMTcuMDAwMDAwKSIgZmlsbC1vcGFjaXR5PSIwLjYiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC04IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjA2NzU0NSwgMjIuOTUwODIwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0yLDYuNTU3Mzc3MDUgTDkuMjU1OTYwOTIsNi41NTczNzcwNSBDMTAuMzYwNTMwNCw2LjU1NzM3NzA1IDExLjI1NTk2MDksNy40NTI4MDc1NSAxMS4yNTU5NjA5LDguNTU3Mzc3MDUgTDExLjI1NTk2MDksNjUuNTczNzcwNSBMMCw2NS41NzM3NzA1IEwwLDguNTU3Mzc3MDUgQy0xLjM1MjcwNzVlLTE2LDcuNDUyODA3NTUgMC44OTU0MzA1LDYuNTU3Mzc3MDUgMiw2LjU1NzM3NzA1IFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iI0QzRDNEMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMTQuNTgwMTkxNiwwIEwyMS44MzYxNTI1LDAgQzIyLjk0MDcyMiwtMi4wMjkwNjEyNWUtMTYgMjMuODM2MTUyNSwwLjg5NTQzMDUgMjMuODM2MTUyNSwyIEwyMy44MzYxNTI1LDY1LjU3Mzc3MDUgTDEyLjU4MDE5MTYsNjUuNTczNzcwNSBMMTIuNTgwMTkxNiwyIEMxMi41ODAxOTE2LDAuODk1NDMwNSAxMy40NzU2MjIxLDIuMDI5MDYxMjVlLTE2IDE0LjU4MDE5MTYsMCBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDQ1LjM2NzI3MCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTIsMzguMDMyNzg2OSBMOS4yNTU5NjA5MiwzOC4wMzI3ODY5IEMxMC4zNjA1MzA0LDM4LjAzMjc4NjkgMTEuMjU1OTYwOSwzOC45MjgyMTc0IDExLjI1NTk2MDksNDAuMDMyNzg2OSBMMTEuMjU1OTYwOSw4OC41MjQ1OTAyIEwwLDg4LjUyNDU5MDIgTDAsNDAuMDMyNzg2OSBDLTEuMzUyNzA3NWUtMTYsMzguOTI4MjE3NCAwLjg5NTQzMDUsMzguMDMyNzg2OSAyLDM4LjAzMjc4NjkgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjRDNEM0QzIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0xNC41ODAxOTE2LDAgTDIxLjgzNjE1MjUsMCBDMjIuOTQwNzIyLC0xLjE4Mzk2MDkyZS0xNSAyMy44MzYxNTI1LDAuODk1NDMwNSAyMy44MzYxNTI1LDIgTDIzLjgzNjE1MjUsODguNTI0NTkwMiBMMTIuNTgwMTkxNiw4OC41MjQ1OTAyIEwxMi41ODAxOTE2LDIgQzEyLjU4MDE5MTYsMC44OTU0MzA1IDEzLjQ3NTYyMjEsMi4wMjkwNjEyNWUtMTYgMTQuNTgwMTkxNiwwIFoiIGlkPSJSZWN0YW5nbGUtMyIgZmlsbD0iIzAwQkZBNSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoOTAuNjY2OTk1LCA5LjE4MDMyOCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiw2LjU1NzM3NzA1IEw5LjI1NTk2MDkyLDYuNTU3Mzc3MDUgQzEwLjM2MDUzMDQsNi41NTczNzcwNSAxMS4yNTU5NjA5LDcuNDUyODA3NTUgMTEuMjU1OTYwOSw4LjU1NzM3NzA1IEwxMS4yNTU5NjA5LDc5LjM0NDI2MjMgTDAsNzkuMzQ0MjYyMyBMMCw4LjU1NzM3NzA1IEMtMS4zNTI3MDc1ZS0xNiw3LjQ1MjgwNzU1IDAuODk1NDMwNSw2LjU1NzM3NzA1IDIsNi41NTczNzcwNSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNEM0QzRDMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE0LjU4MDE5MTYsMCBMMjEuODM2MTUyNSwwIEMyMi45NDA3MjIsNy43ODE0ODY2N2UtMTYgMjMuODM2MTUyNSwwLjg5NTQzMDUgMjMuODM2MTUyNSwyIEwyMy44MzYxNTI1LDc5LjM0NDI2MjMgTDEyLjU4MDE5MTYsNzkuMzQ0MjYyMyBMMTIuNTgwMTkxNiwyIEMxMi41ODAxOTE2LDAuODk1NDMwNSAxMy40NzU2MjIxLDIuMDI5MDYxMjVlLTE2IDE0LjU4MDE5MTYsMCBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiMwMEJGQTUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDEzNS45NjY3MjAsIDIyLjk1MDgyMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMiw2LjU1NzM3NzA1IEw5LjI1NTk2MDkyLDYuNTU3Mzc3MDUgQzEwLjM2MDUzMDQsNi41NTczNzcwNSAxMS4yNTU5NjA5LDcuNDUyODA3NTUgMTEuMjU1OTYwOSw4LjU1NzM3NzA1IEwxMS4yNTU5NjA5LDY1LjU3Mzc3MDUgTDAsNjUuNTczNzcwNSBMMCw4LjU1NzM3NzA1IEMtMS4zNTI3MDc1ZS0xNiw3LjQ1MjgwNzU1IDAuODk1NDMwNSw2LjU1NzM3NzA1IDIsNi41NTczNzcwNSBaIiBpZD0iUmVjdGFuZ2xlLTMiIGZpbGw9IiNEM0QzRDMiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTE0LjU4MDE5MTYsMCBMMjEuODM2MTUyNSwwIEMyMi45NDA3MjIsLTIuMDI5MDYxMjVlLTE2IDIzLjgzNjE1MjUsMC44OTU0MzA1IDIzLjgzNjE1MjUsMiBMMjMuODM2MTUyNSw2NS41NzM3NzA1IEwxMi41ODAxOTE2LDY1LjU3Mzc3MDUgTDEyLjU4MDE5MTYsMiBDMTIuNTgwMTkxNiwwLjg5NTQzMDUgMTMuNDc1NjIyMSwyLjAyOTA2MTI1ZS0xNiAxNC41ODAxOTE2LDAgWiIgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsPSIjMDBCRkE1Ij48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
+    <t>Chart</t>
+  </si>
+  <si>
     <t>迭代速度图</t>
   </si>
   <si>
@@ -2046,6 +2064,9 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NXB4IiBoZWlnaHQ9IjEwNXB4IiB2aWV3Qm94PSIwIDAgMTg1IDEwNSIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5jaGFydDwvdGl0bGU+CiAgICA8ZGVzYz5DcmVhdGVkIHdpdGggU2tldGNoLjwvZGVzYz4KICAgIDxkZWZzPjwvZGVmcz4KICAgIDxnIGlkPSLmiqXlkYoiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiqXlkYrvvI3miYDmnInmiqXooagiIHRyYW5zZm9ybT0idHJhbnNsYXRlKC05MzAuMDAwMDAwLCAtNTk2LjAwMDAwMCkiPgogICAgICAgICAgICA8ZyBpZD0iR3JvdXAtNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMjc0LjAwMDAwMCwgMTMyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgPGcgaWQ9IuaJgOacieaKpeihqO+8jeeHg+WwveWbviIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNjA4LjAwMDAwMCwgNDIyLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMzAuMDAwMDAwLCAxOC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9ImNoYXJ0IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Iuahhue6vyI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ik1ldHJpY3MvR3JhcGgvQ2FyZC0tLVNsaW0tLS1HcmVlbiI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcmlkIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjE2MTcwOCwgMC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJMaW5lcyIgb3BhY2l0eT0iMC4zNSIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4xNjU2NDUsIDAuMjg3NTc3KSI+PC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9IuaoqiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMC4wMDM4MTUsIDAuMjQyNzYwKSIgZmlsbD0iI0VFRUVFRSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0yNzIiIHg9IjAiIHk9IjEwMy42MDYwNzciIHdpZHRoPSIxODMuNTM0NDAyIiBoZWlnaHQ9IjEiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTI3Mi1Db3B5IiB4PSIwIiB5PSI4NS44NjU5NTAxIiB3aWR0aD0iMTgzLjUzNDQwMiIgaGVpZ2h0PSIxIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0yNzItQ29weS0yIiB4PSIwIiB5PSI2OC43MTcxNjA1IiB3aWR0aD0iMTgzLjUzNDQwMiIgaGVpZ2h0PSIxIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0yNzItQ29weS0zIiB4PSIwIiB5PSI1MS41NjgzNzEiIHdpZHRoPSIxODMuNTM0NDAyIiBoZWlnaHQ9IjEiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTI3Mi1Db3B5LTQiIHg9IjAiIHk9IjMzLjgyODI0MzgiIHdpZHRoPSIxODMuNTM0NDAyIiBoZWlnaHQ9IjEiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTI3Mi1Db3B5LTUiIHg9IjAiIHk9IjE2LjY3OTQ1NDMiIHdpZHRoPSIxODMuNTM0NDAyIiBoZWlnaHQ9IjEiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTI3MiIgeD0iMCIgeT0iMCIgd2lkdGg9IjE4My41MzQ0MDIiIGhlaWdodD0iMSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS0zIiBmaWxsLW9wYWNpdHk9IjAuMDQiIGZpbGw9IiMwMDAwMDAiIHg9IjIzLjI4OTYxNyIgeT0iNSIgd2lkdGg9IjEzNy40NDMyNjciIGhlaWdodD0iOTguODU4ODcyNSI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDAuNjgwODcxLCA1LjU4MDIxNykiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC05IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgMzAuMDAwMDAwKSIgZmlsbD0iIzREOTBGRSIgZmlsbC1vcGFjaXR5PSIwLjIiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cG9seWdvbiBpZD0iTGluZSIgcG9pbnRzPSIxODMuMDEzMjIgLTQuMzM0MzEwNjllLTEzIDE0NS43NDIwMzQgLTQuMzM0MzEwNjllLTEzIDE0NS43NDIwMzQgMTQuNzM5OTM5MyA5MS40NjQ4MjYxIDE0LjczOTkzOTMgOTEuMzkzMTQ0NiAzNC4xMjM5NjkgNDUuNTU2MjcyIDM0LjEyMzk2OSA0NS42Mjc5NTM1IDUzLjEwNDE2NDggMjIuMzk2MTM4MyA1My4xMDQxNjQ4IDIyLjM5NjEzODMgNjguMjQ3OTM4IDAgNjguMjQ3OTM4IDE4My4wMTMyMiA2OC4yNDc5MzgiPjwvcG9seWdvbj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBvbHlsaW5lIGlkPSJMaW5lIiBzdHJva2U9IiMzMDNGOUYiIHN0cm9rZS13aWR0aD0iMS4yIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIiBwb2ludHM9IjE4My4yOTMxMzkgMTEuODI2Mjk3OCAxNjMuODg0MjM1IDExLjgyNjI5NzggMTYzLjg4NDIzNSAwLjgwMjE3MTY1IDExNy4zMTkxMjkgMC40MTk3ODI4MzUgMTE3LjMxOTEyOSAyNi40MTk3ODI4IDYyLjMxOTEyODggMjYuMzY1MDY4MSA2MS45MDc5MDYgNDkuODMwNTIyMSAxMS40MTkxMDM0IDQ5LjgzMDUyMjEgMTEuNDE5MTAzNCA5Ny45ODg1NDY4Ij48L3BvbHlsaW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwb2x5bGluZSBpZD0iTGluZSIgc3Ryb2tlPSIjRkY5OTE1IiBzdHJva2Utd2lkdGg9IjEuMiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSIgcG9pbnRzPSIxODMuMDk4NDYzIDY5LjU1NzkwNTcgMTYyLjI4NjUwNSA2OS41NTc5MDU3IDE2Mi4yODY1MDUgNzcuMTAwNzI4OCAxMjYuMjc0ODAyIDc3LjEwMDcyODggMTI2LjI3NDgwMiA1OS42OTQyMTM5IDgzLjI0NzgzMjQgNTkuNjk0MjEzOSA4My4zMTkxMjg4IDQyLjUyMjkyMTMgMzMuNTkzMzgyNyA0Mi41MjI5MjEzIDMzLjU5MzM4MjcgNjcuMTQ0NzU2OCA0LjIwOTE2MDA3IDY3LjE0NDc1NjggNC4yMDkxNjAwNyA5OC4yNzg2NTU0Ij48L3BvbHlsaW5lPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
+    <t>epic</t>
+  </si>
+  <si>
     <t>史诗报告图</t>
   </si>
   <si>
@@ -2067,6 +2088,9 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMTI2cHgiIGhlaWdodD0iMTI2cHgiIHZpZXdCb3g9IjAgMCAxMjYgMTI2IiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPHRpdGxlPumlvOWbvjwvdGl0bGU+CiAgICA8ZyBpZD0i6Ieq5a6a5LmJ5pWP5o235oql6KGoIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5Y2P5L2c5Zu+6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtOTE5LjAwMDAwMCwgLTQ4MC4wMDAwMDApIiBmaWxsLXJ1bGU9Im5vbnplcm8iIHN0cm9rZT0iI0ZGRkZGRiIgc3Ryb2tlLXdpZHRoPSIxLjUiPgogICAgICAgICAgICA8ZyBpZD0i6Ieq5a6a5LmJ5oql6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtMi4wMDAwMDAsIDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSg4NDkuMDAwMDAwLCA0NDAuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Iui3r+W+hCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoNzMuMDAwMDAwLCA0MS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTYyLjEsNjIgTDI1LjksMTIuMSBDMzYuMzMxMDYyMyw0LjI3NDI1MDE1IDQ5LjA2MDg3NzcsMC4xMjQ3NTIyOTQgNjIuMSwwLjMgTDYyLjEsNjIgWiIgZmlsbD0iI0ZGODEyQyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjIuMSw2MiBMMy41LDgxIEMtNC45LDU1LjEgMy45LDI4LjEgMjUuOSwxMi4xIEw2Mi4xLDYyIFoiIGZpbGw9IiNGRkNFMkIiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTYyLjEsNjIgTDk4LjMsMTExLjkgQzcwLjc2MjU2NjcsMTMxLjg5NTE5NyAzMi4yMzM4MTA4LDEyNS44MDkzNTQgMTIuMiw5OC4zIEM4LjMzMTQxOTg4LDkzLjA5NTQwODcgNS4zNTczNDAzMSw4Ny4yODI0MzUgMy40LDgxLjEgTDYyLjEsNjIgWiIgZmlsbD0iIzAwQzVEMiI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNjIuMSw2MiBMNjIuMSwwLjQgQzk2LjExMzg4MTcsMC40MTY1NTMxMTMgMTIzLjY4MzQ0NywyNy45ODYxMTgzIDEyMy43LDYyIEMxMjMuNyw4Mi40IDExNC44LDk5LjkgOTguMywxMTEuOSBMNjIuMSw2MiBaIiBmaWxsPSIjNjQ4REZGIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
+    <t>pie</t>
+  </si>
+  <si>
     <t>统计图</t>
   </si>
   <si>
@@ -2088,6 +2112,9 @@
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMjA4cHgiIGhlaWdodD0iMTIycHgiIHZpZXdCb3g9IjAgMCAyMDggMTIyIiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OS4zICg1MTE2NykgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+R3JvdXAgMTg8L3RpdGxlPgogICAgPGRlc2M+Q3JlYXRlZCB3aXRoIFNrZXRjaC48L2Rlc2M+CiAgICA8ZGVmcz48L2RlZnM+CiAgICA8ZyBpZD0i5oql5ZGKIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5oql5ZGK77yN5omA5pyJ5oql6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtNjE0LjAwMDAwMCwgLTk0OC4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI3NC4wMDAwMDAsIDEzMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgIDxnIGlkPSLmiYDmnInmiqXooajvvI3lj7Lor5fnh4PogJflm74iIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwNC4wMDAwMDAsIDc3NC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNCI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTgiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE3IiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMS4wNjEyMjQ0OSwxMjAuODQ5MDU3IEwyMDcuMzA5OTY2LDEyMC44NDkwNTciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLjg3NTYyOTE3NSw5MC45MjQ1MjgzIEwyMDcuMTI0MzcxLDkwLjkyNDUyODMiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLjg3NTYyOTE3NSw2MSBMMjA3LjEyNDM3MSw2MSIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuODc1NjI5MTc1LDMxLjA3NTQ3MTcgTDIwNy4xMjQzNzEsMzEuMDc1NDcxNyIgaWQ9IkxpbmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuODc1NjI5MTc1LDEuMTUwOTQzNCBMMjA3LjEyNDM3MSwxLjE1MDk0MzQiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNiIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTQuMDAwMDAwLCAxLjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTUiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS04IiBmaWxsPSIjNkFCNUZEIiB4PSIwIiB5PSIwIiB3aWR0aD0iMjciIGhlaWdodD0iMTE5LjU1MTUzNiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS04IiBmaWxsPSIjNkFCNUZEIiB4PSIzOC4yNSIgeT0iMzAuOTk0ODQyNiIgd2lkdGg9IjI3IiBoZWlnaHQ9Ijg4LjU1NjY5MzIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtOC1Db3B5LTIiIGZpbGw9IiM2QUI1RkQiIHg9Ijc2LjUiIHk9IjYxLjk4OTY4NTIiIHdpZHRoPSIyNyIgaGVpZ2h0PSI1Ny41NjE4NTA1Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTgtQ29weS0zIiBmaWxsPSIjNkFCNUZEIiB4PSIxMTQuNzUiIHk9Ijg3LjQ0OTczNDUiIHdpZHRoPSIyNyIgaGVpZ2h0PSIzMi4xMDE4MDEzIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTgtQ29weS00IiBmaWxsPSIjMzNDQ0I3IiB4PSIxMTQuNzUiIHk9IjYxLjk4OTY4NTIiIHdpZHRoPSIyNyIgaGVpZ2h0PSIyNS40NjAwNDkzIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTgtQ29weS01IiBmaWxsPSIjMzNDQ0I3IiB4PSIxNTMiIHk9Ijg3LjQ0OTczNDUiIHdpZHRoPSIyNyIgaGVpZ2h0PSIzMi4xMDE4MDEzIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTgtQ29weS0yIiBmaWxsPSIjMzNDQ0I3IiB4PSI3Ni41IiB5PSIzMC45OTQ4NDI2IiB3aWR0aD0iMjciIGhlaWdodD0iMzAuOTk0ODQyNiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS04LUNvcHkiIGZpbGw9IiMzM0NDQjciIHg9IjM4LjI1IiB5PSIwIiB3aWR0aD0iMjciIGhlaWdodD0iMzAuOTk0ODQyNiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
+    <t>epic-burndown</t>
+  </si>
+  <si>
     <t>史诗燃耗图</t>
   </si>
   <si>
@@ -2107,6 +2134,9 @@
   </si>
   <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiPz4KPHN2ZyB3aWR0aD0iMjA4cHgiIGhlaWdodD0iMTIycHgiIHZpZXdCb3g9IjAgMCAyMDggMTIyIiB2ZXJzaW9uPSIxLjEiIHhtbG5zPSJodHRwOi8vd3d3LnczLm9yZy8yMDAwL3N2ZyIgeG1sbnM6eGxpbms9Imh0dHA6Ly93d3cudzMub3JnLzE5OTkveGxpbmsiPgogICAgPCEtLSBHZW5lcmF0b3I6IFNrZXRjaCA0OS4zICg1MTE2NykgLSBodHRwOi8vd3d3LmJvaGVtaWFuY29kaW5nLmNvbS9za2V0Y2ggLS0+CiAgICA8dGl0bGU+R3JvdXAgMTk8L3RpdGxlPgogICAgPGRlc2M+Q3JlYXRlZCB3aXRoIFNrZXRjaC48L2Rlc2M+CiAgICA8ZGVmcz48L2RlZnM+CiAgICA8ZyBpZD0i5oql5ZGKIiBzdHJva2U9Im5vbmUiIHN0cm9rZS13aWR0aD0iMSIgZmlsbD0ibm9uZSIgZmlsbC1ydWxlPSJldmVub2RkIj4KICAgICAgICA8ZyBpZD0i5oql5ZGK77yN5omA5pyJ5oql6KGoIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgtOTE4LjAwMDAwMCwgLTk0OC4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDI3NC4wMDAwMDAsIDEzMi4wMDAwMDApIj4KICAgICAgICAgICAgICAgIDxnIGlkPSLmiYDmnInmiqXooajvvI3lj5HluIPniYjmnKznh4PogJflm74iIHRyYW5zZm9ybT0idHJhbnNsYXRlKDYwOC4wMDAwMDAsIDc3NC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICA8ZyBpZD0i5Y+R5biD54mI5pys54eD6ICX5Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTE5IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgxOC4wMDAwMDAsIDI0LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0xNyIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTEuMDYxMjI0NDksMTIwLjg0OTA1NyBMMjA3LjMwOTk2NiwxMjAuODQ5MDU3IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC44NzU2MjkxNzUsOTAuOTI0NTI4MyBMMjA3LjEyNDM3MSw5MC45MjQ1MjgzIiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC44NzU2MjkxNzUsNjEgTDIwNy4xMjQzNzEsNjEiIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLjg3NTYyOTE3NSwzMS4wNzU0NzE3IEwyMDcuMTI0MzcxLDMxLjA3NTQ3MTciIGlkPSJMaW5lIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLjg3NTYyOTE3NSwxLjE1MDk0MzQgTDIwNy4xMjQzNzEsMS4xNTA5NDM0IiBpZD0iTGluZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtMTUiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE0LjAwMDAwMCwgMS4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS04IiBmaWxsPSIjNkFCNUZEIiB4PSIwIiB5PSIwIiB3aWR0aD0iMjciIGhlaWdodD0iOTcuNzc3Nzc3OCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTgiIGZpbGw9IiM2QUI1RkQiIHg9IjM4LjI1IiB5PSIyMCIgd2lkdGg9IjI3IiBoZWlnaHQ9Ijc3Ljc3Nzc3NzgiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS04LUNvcHktNiIgZmlsbD0iIzQ5OTlFNSIgeD0iMzguMjUiIHk9Ijk3Ljc3Nzc3NzgiIHdpZHRoPSIyNyIgaGVpZ2h0PSIyMi4yMjIyMjIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtOC1Db3B5LTIiIGZpbGw9IiM2QUI1RkQiIHg9Ijc2LjUiIHk9IjQyLjIyMjIyMjIiIHdpZHRoPSIyNyIgaGVpZ2h0PSI3Ny43Nzc3Nzc4Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtOC1Db3B5LTMiIGZpbGw9IiM2QUI1RkQiIHg9IjExNC43NSIgeT0iNjcuNzc3Nzc3OCIgd2lkdGg9IjI3IiBoZWlnaHQ9IjMyLjIyMjIyMjIiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgaWQ9IlJlY3RhbmdsZS04LUNvcHktNCIgZmlsbD0iIzMzQ0NCNyIgeD0iMTE0Ljc1IiB5PSI0Mi4yMjIyMjIyIiB3aWR0aD0iMjciIGhlaWdodD0iMjUuNTU1NTU1NiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTgtQ29weS01IiBmaWxsPSIjMzNDQ0I3IiB4PSIxNTMiIHk9IjY3Ljc3Nzc3NzgiIHdpZHRoPSIyNyIgaGVpZ2h0PSIzMi4yMjIyMjIyIj48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtOC1Db3B5LTIiIGZpbGw9IiMzM0NDQjciIHg9Ijc2LjUiIHk9IjIwIiB3aWR0aD0iMjciIGhlaWdodD0iMjIuMjIyMjIyMiI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTgtQ29weSIgZmlsbD0iIzMzQ0NCNyIgeD0iMzguMjUiIHk9IjAiIHdpZHRoPSIyNyIgaGVpZ2h0PSIyMCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgPC9nPgogICAgICAgIDwvZz4KICAgIDwvZz4KPC9zdmc+</t>
+  </si>
+  <si>
+    <t>version-burndown</t>
   </si>
   <si>
     <t>版本燃耗图</t>
@@ -2153,9 +2183,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
@@ -2233,6 +2263,51 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2248,75 +2323,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2331,8 +2345,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2347,22 +2377,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2379,6 +2402,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2460,13 +2490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2484,37 +2526,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2532,49 +2544,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2598,13 +2580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,13 +2598,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2634,13 +2664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2747,17 +2777,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2773,11 +2792,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2799,33 +2851,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2847,148 +2877,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3697,10 +3727,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3709,10 +3739,10 @@
     <col min="4" max="4" width="29.4222222222222" customWidth="1"/>
     <col min="5" max="5" width="18.3555555555556" customWidth="1"/>
     <col min="6" max="6" width="12.9259259259259" customWidth="1"/>
-    <col min="7" max="7" width="148.422222222222" customWidth="1"/>
-    <col min="8" max="9" width="9" customWidth="1"/>
-    <col min="10" max="11" width="81.3555555555556" customWidth="1"/>
-    <col min="12" max="12" width="45.637037037037" customWidth="1"/>
+    <col min="7" max="8" width="38.3333333333333" customWidth="1"/>
+    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="11" max="12" width="81.3555555555556" customWidth="1"/>
+    <col min="13" max="13" width="45.637037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3729,7 +3759,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="5:7">
+    <row r="4" spans="5:8">
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
@@ -3739,8 +3769,9 @@
       <c r="G4" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3762,13 +3793,13 @@
       <c r="G7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>57</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="K7" t="s">
@@ -3780,456 +3811,496 @@
       <c r="M7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8" spans="5:15">
+      <c r="P7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16">
       <c r="E8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
       <c r="K8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" t="s">
+        <v>73</v>
+      </c>
+      <c r="N8" s="5">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16">
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="5">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16">
+      <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="5">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>20</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16">
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="5">
+        <v>40</v>
+      </c>
+      <c r="O11">
+        <v>20</v>
+      </c>
+      <c r="P11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="5:16">
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="5">
+        <v>50</v>
+      </c>
+      <c r="O12">
+        <v>20</v>
+      </c>
+      <c r="P12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="5:16">
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N13" s="5">
+        <v>60</v>
+      </c>
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="5:16">
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" s="5">
         <v>70</v>
       </c>
-      <c r="L8" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="5">
-        <v>10</v>
-      </c>
-      <c r="N8">
+      <c r="O14">
         <v>20</v>
       </c>
-      <c r="O8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="5:15">
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="P14" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
+    </row>
+    <row r="15" spans="5:16">
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
         <v>76</v>
       </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="G15" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>131</v>
+      </c>
+      <c r="N15" s="5">
         <v>80</v>
       </c>
-      <c r="M9" s="5">
+      <c r="O15">
         <v>20</v>
       </c>
-      <c r="N9">
+      <c r="P15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16">
+      <c r="E16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="s">
+        <v>139</v>
+      </c>
+      <c r="N16" s="5">
+        <v>90</v>
+      </c>
+      <c r="O16">
         <v>20</v>
       </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="5:15">
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="P16" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="5">
-        <v>30</v>
-      </c>
-      <c r="N10">
-        <v>20</v>
-      </c>
-      <c r="O10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="5:15">
-      <c r="E11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="5">
-        <v>40</v>
-      </c>
-      <c r="N11">
-        <v>20</v>
-      </c>
-      <c r="O11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="5:15">
-      <c r="E12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I12" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M12" s="5">
-        <v>50</v>
-      </c>
-      <c r="N12">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="5:15">
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L13" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="5">
-        <v>60</v>
-      </c>
-      <c r="N13">
-        <v>20</v>
-      </c>
-      <c r="O13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="5:15">
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M14" s="5">
-        <v>70</v>
-      </c>
-      <c r="N14">
-        <v>20</v>
-      </c>
-      <c r="O14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="5:15">
-      <c r="E15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" s="5">
-        <v>80</v>
-      </c>
-      <c r="N15">
-        <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="5:15">
-      <c r="E16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" t="s">
-        <v>129</v>
-      </c>
-      <c r="M16" s="5">
-        <v>90</v>
-      </c>
-      <c r="N16">
-        <v>20</v>
-      </c>
-      <c r="O16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="5:7">
+        <v>145</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="5:8">
       <c r="E20" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ref="F20:F28" si="0">E8</f>
         <v>fd_report-8</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7">
+        <v>147</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="5:8">
       <c r="E21" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-9</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7">
+        <v>147</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="5:8">
       <c r="E22" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-10</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7">
+        <v>147</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="5:8">
       <c r="E23" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-11</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7">
+        <v>147</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="5:8">
       <c r="E24" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7">
+        <v>147</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="5:8">
       <c r="E25" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-13</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7">
+        <v>147</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="5:8">
       <c r="E26" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-14</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="5:7">
+        <v>147</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="5:8">
       <c r="E27" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="5:7">
+        <v>147</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="5:8">
       <c r="E28" s="5" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-16</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="H28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7770" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="13500" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
   <si>
     <r>
       <rPr>
@@ -1935,6 +1935,9 @@
     <t>fd_report-8</t>
   </si>
   <si>
+    <t>敏捷报表</t>
+  </si>
+  <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NHB4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg0IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAyPC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiYDmnInmiqXooajvvI3nh4PlsL3lm74iIHRyYW5zZm9ybT0idHJhbnNsYXRlKC00OC4wMDAwMDAsIC00Mi4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIj4KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNDMuMTgzNjczNSIgeT0iMCIgd2lkdGg9IjI0LjQwODE2MzMiIGhlaWdodD0iMTA2IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjEwNS4xNDI4NTciIHk9IjAiIHdpZHRoPSIyNC40MDgxNjMzIiBoZWlnaHQ9IjEwNiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuOTM4Nzc1NTEsMTA1IEwxODMuMzg5NTg1LDEwNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw3OSBMMTgzLjIyNTQwNSw3OSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw1MyBMMTgzLjIyNTQwNSw1MyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwyNyBMMTgzLjIyNTQwNSwyNyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwxIEwxODMuMjI1NDA1LDEiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTUuNzg2NDM5NTMsMy41MzE5MTQ4OSBMMTc3LjI4NzQxNCwxMDIuNDY4MDg1IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNy4yNTc2MTg3NCw1IEw0NS4wMzk3NjQ0LDEzLjg1MDQwNDcgQzQ1LjU3ODkyMTcsMTMuOTc2NzAxNSA0Ni4wNDE1ODUsMTQuMzIwODgyNiA0Ni4zMTc1NTM5LDE0LjgwMDk2ODcgTDY2LjU4MTczODMsNTAuMDUzMzIxNSBDNjcuMDExNjk4NSw1MC44MDEyOTY3IDY3Ljg3MjgzNzQsNTEuMTg5MjU1IDY4LjcxNzk1MjYsNTEuMDE1NzIzOSBMMTEyLjMzMjI4Myw0Mi4wNjAyMDMgQzExMy4yNzYyMSw0MS44NjYzODIyIDExNC4yMjQxNDIsNDIuMzczMjA5OCAxMTQuNTg3MTg3LDQzLjI2NTgyNjEgTDEzNi40NzM4MzcsOTcuMDc4Mjg5NSBDMTM2Ljc0MjQ0LDk3LjczODY5ODggMTM3LjM0MjI4Nyw5OC4yMDYxOTAyIDEzOC4wNDgzMDEsOTguMzA1MzQ4MyBMMTc4LjU5NDY3NCwxMDQiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
   </si>
   <si>
@@ -1960,9 +1963,6 @@
   </si>
   <si>
     <t>fd_report-9</t>
-  </si>
-  <si>
-    <t>敏捷报表</t>
   </si>
   <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NXB4IiBoZWlnaHQ9IjEwN3B4IiB2aWV3Qm94PSIwIDAgMTg1IDEwNyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IuaKpeWRiu+8jeaJgOacieaKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTYyNS4wMDAwMDAsIC0yNzkuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDYuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNjYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgODIuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTguMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjIzLjQxMzM5OTIiIHk9IjAiIHdpZHRoPSIxMy4yMzM2NjA0IiBoZWlnaHQ9IjUwIiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNTcuMDA2NTM3MiIgeT0iMCIgd2lkdGg9IjEzLjIzMzY2MDQiIGhlaWdodD0iNTAiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuNTA4OTg2OTM5LDQ5LjUyODMwMTkgTDk5LjQzMDQ4NDQsNDkuNTI4MzAxOSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLjQxOTk3MTI4NiwzNy4yNjQxNTA5IEw5OS4zNDE0Njg3LDM3LjI2NDE1MDkiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC40MTk5NzEyODYsMjUgTDk5LjM0MTQ2ODcsMjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC40MTk5NzEyODYsMTIuNzM1ODQ5MSBMOTkuMzQxNDY4NywxMi43MzU4NDkxIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuNDE5OTcxMjg2LDAuNDcxNjk4MTEzIEw5OS4zNDE0Njg3LDAuNDcxNjk4MTEzIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMuMTM3MzAxODUsMS42NjU5OTc1OSBMOTYuMTIxOTk4Niw0OC4zMzQwMDI0IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zLjkzNDk0ODM1LDIuMzU4NDkwNTcgTDI0LjA2NTY5MTMsNi40NjEwNTY1IEMyNC41ODU3NjQyLDYuNTY3MDQ1MzEgMjUuMDQyMzc5LDYuODc1NDEzNTIgMjUuMzM0OTY5OCw3LjMxODI0NTQgTDM1Ljc2NDcwMTgsMjMuMTAzNDkyNSBDMzYuMjA0ODU4OCwyMy43Njk2NjM2IDM2Ljk5OTA3MDMsMjQuMTEwMjA4MSAzNy43ODUwNzY5LDIzLjk2OTc5NTEgTDYwLjI3NDc1ODYsMTkuOTUyMjE4MiBDNjEuMTY2NzkxMiwxOS43OTI4NjQ3IDYyLjA1NDUwNTEsMjAuMjUzMTY1MyA2Mi40MzgyNjMsMjEuMDc0MDQ2MyBMNzMuNzU5NTk5MSw0NS4yOTEwNTYgQzc0LjA1MTU0ODYsNDUuOTE1NTUzMyA3NC42NDQ1MzM2LDQ2LjM0NTY3NTMgNzUuMzI4ODE0NSw0Ni40MjkyODczIEw5Ni44MzA3NzA4LDQ5LjA1NjYwMzgiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
@@ -2183,10 +2183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -2240,6 +2240,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFC55A11"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2257,52 +2263,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2322,8 +2284,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2332,6 +2310,13 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2354,15 +2339,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2375,9 +2367,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2393,22 +2392,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2490,7 +2490,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2502,175 +2664,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2687,12 +2687,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2717,6 +2733,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2725,26 +2754,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2759,15 +2768,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -2777,17 +2777,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2807,20 +2810,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2830,6 +2845,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2848,188 +2874,162 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3041,112 +3041,112 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -3481,7 +3481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
@@ -3489,22 +3489,22 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5703703703704" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3555555555556" style="8" customWidth="1"/>
-    <col min="3" max="3" width="28.0666666666667" customWidth="1"/>
-    <col min="4" max="4" width="35.3555555555556" style="5" customWidth="1"/>
-    <col min="5" max="5" width="38.5703703703704" customWidth="1"/>
-    <col min="6" max="6" width="23.4222222222222" customWidth="1"/>
-    <col min="7" max="7" width="21.5703703703704" customWidth="1"/>
+    <col min="1" max="1" width="15.5723684210526" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3552631578947" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.0657894736842" customWidth="1"/>
+    <col min="4" max="4" width="35.3552631578947" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
+    <col min="6" max="6" width="23.4210526315789" customWidth="1"/>
+    <col min="7" max="7" width="21.5723684210526" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5703703703704" customWidth="1"/>
+    <col min="9" max="9" width="24.5723684210526" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.0666666666667" customWidth="1"/>
-    <col min="12" max="12" width="18.5703703703704" customWidth="1"/>
-    <col min="13" max="13" width="13.0666666666667" customWidth="1"/>
-    <col min="14" max="1025" width="10.3555555555556" customWidth="1"/>
+    <col min="11" max="11" width="19.0657894736842" customWidth="1"/>
+    <col min="12" max="12" width="18.5723684210526" customWidth="1"/>
+    <col min="13" max="13" width="13.0657894736842" customWidth="1"/>
+    <col min="14" max="1025" width="10.3552631578947" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
@@ -3514,130 +3514,130 @@
       </c>
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" ht="18" spans="5:5">
-      <c r="E2" s="12"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="5:5">
+      <c r="E2" s="24"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="18" spans="1:3">
       <c r="A5" s="9"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="3:5">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="3:5">
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+    <row r="8" ht="17.6" spans="3:5">
+      <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
-    </row>
-    <row r="9" ht="51.75" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="E8" s="33"/>
+    </row>
+    <row r="9" ht="53" spans="3:6">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="34" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" ht="51.75" spans="3:5">
-      <c r="C10" s="28" t="s">
+    <row r="10" ht="51" spans="3:5">
+      <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="34" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="69" spans="3:5">
-      <c r="C11" s="22" t="s">
+    <row r="11" ht="71" spans="3:5">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+    <row r="12" ht="18" spans="3:5">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-    </row>
-    <row r="15" ht="34.5" spans="3:5">
-      <c r="C15" s="30" t="s">
+    <row r="13" ht="17.6" spans="3:5">
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="33"/>
+    </row>
+    <row r="14" ht="17.6" spans="3:5">
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" ht="36" spans="3:5">
+      <c r="C15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="36" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3646,65 +3646,65 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+    <row r="19" ht="18" spans="3:5">
+      <c r="C19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" ht="51.75" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" ht="33" spans="3:3">
+      <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3725,24 +3725,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
   <cols>
-    <col min="2" max="2" width="8.5037037037037" customWidth="1"/>
-    <col min="4" max="4" width="29.4222222222222" customWidth="1"/>
-    <col min="5" max="5" width="18.3555555555556" customWidth="1"/>
-    <col min="6" max="6" width="12.9259259259259" customWidth="1"/>
-    <col min="7" max="8" width="38.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="8.50657894736842" customWidth="1"/>
+    <col min="4" max="4" width="29.4210526315789" customWidth="1"/>
+    <col min="5" max="5" width="18.3552631578947" customWidth="1"/>
+    <col min="6" max="6" width="12.9276315789474" customWidth="1"/>
+    <col min="7" max="8" width="38.3355263157895" customWidth="1"/>
     <col min="9" max="10" width="9" customWidth="1"/>
-    <col min="11" max="12" width="81.3555555555556" customWidth="1"/>
-    <col min="13" max="13" width="45.637037037037" customWidth="1"/>
+    <col min="11" max="12" width="81.3552631578947" customWidth="1"/>
+    <col min="13" max="13" width="45.6381578947368" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3760,16 +3760,16 @@
       </c>
     </row>
     <row r="4" spans="5:8">
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
@@ -3784,22 +3784,22 @@
       <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="K7" t="s">
@@ -3825,45 +3825,48 @@
       <c r="E8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" t="s">
         <v>67</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
-      </c>
-      <c r="K8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="M8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="5">
+        <v>74</v>
+      </c>
+      <c r="N8" s="2">
         <v>10</v>
       </c>
       <c r="O8">
         <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="5:16">
       <c r="E9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H9" t="s">
@@ -3875,23 +3878,23 @@
       <c r="J9" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M9" t="s">
         <v>83</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="2">
         <v>20</v>
       </c>
       <c r="O9">
         <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="5:16">
@@ -3899,9 +3902,9 @@
         <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H10" t="s">
@@ -3913,23 +3916,23 @@
       <c r="J10" t="s">
         <v>88</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="2">
         <v>30</v>
       </c>
       <c r="O10">
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="5:16">
@@ -3937,9 +3940,9 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H11" t="s">
@@ -3951,23 +3954,23 @@
       <c r="J11" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="2" t="s">
         <v>98</v>
       </c>
       <c r="M11" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="2">
         <v>40</v>
       </c>
       <c r="O11">
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="5:16">
@@ -3975,9 +3978,9 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>101</v>
       </c>
       <c r="H12" t="s">
@@ -3989,23 +3992,23 @@
       <c r="J12" t="s">
         <v>104</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="2" t="s">
         <v>106</v>
       </c>
       <c r="M12" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="2">
         <v>50</v>
       </c>
       <c r="O12">
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="5:16">
@@ -4013,9 +4016,9 @@
         <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>109</v>
       </c>
       <c r="H13" t="s">
@@ -4027,23 +4030,23 @@
       <c r="J13" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="2" t="s">
         <v>114</v>
       </c>
       <c r="M13" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="2">
         <v>60</v>
       </c>
       <c r="O13">
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="5:16">
@@ -4051,9 +4054,9 @@
         <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H14" t="s">
@@ -4065,23 +4068,23 @@
       <c r="J14" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="2" t="s">
         <v>122</v>
       </c>
       <c r="M14" t="s">
         <v>123</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="2">
         <v>70</v>
       </c>
       <c r="O14">
         <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="5:16">
@@ -4089,9 +4092,9 @@
         <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>125</v>
       </c>
       <c r="H15" t="s">
@@ -4103,23 +4106,23 @@
       <c r="J15" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="2" t="s">
         <v>130</v>
       </c>
       <c r="M15" t="s">
         <v>131</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="2">
         <v>80</v>
       </c>
       <c r="O15">
         <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="5:16">
@@ -4127,9 +4130,9 @@
         <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>133</v>
       </c>
       <c r="H16" t="s">
@@ -4141,166 +4144,166 @@
       <c r="J16" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="2" t="s">
         <v>138</v>
       </c>
       <c r="M16" t="s">
         <v>139</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="2">
         <v>90</v>
       </c>
       <c r="O16">
         <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="5:8">
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ref="F20:F28" si="0">E8</f>
         <v>fd_report-8</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="5:8">
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-9</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="5:8">
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-10</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="5"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="5:8">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-11</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H23" s="5"/>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="5:8">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-12</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H24" s="5"/>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="5:8">
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-13</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="5"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="5:8">
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-14</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H26" s="5"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="5:8">
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-15</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H27" s="5"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="5:8">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-16</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="5"/>
+      <c r="H28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13500" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28000" windowHeight="13320" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
   <si>
     <r>
       <rPr>
@@ -2152,6 +2152,9 @@
   </si>
   <si>
     <t>/agile/charts/versionBurndown</t>
+  </si>
+  <si>
+    <t>fd_report-17</t>
   </si>
   <si>
     <t>2020-05-29</t>
@@ -2188,7 +2191,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2217,6 +2220,13 @@
       <sz val="11"/>
       <color indexed="42"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2271,13 +2281,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2285,10 +2288,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2300,10 +2310,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2315,16 +2333,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2339,17 +2358,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2360,15 +2372,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2382,9 +2395,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2392,23 +2411,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2490,91 +2500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2592,7 +2518,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2604,7 +2644,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,37 +2662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2658,19 +2674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2786,11 +2796,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2810,17 +2835,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2840,36 +2870,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2878,152 +2888,152 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3031,6 +3041,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3038,24 +3049,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3063,33 +3074,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3491,8 +3502,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5723684210526" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.3552631578947" style="8" customWidth="1"/>
+    <col min="1" max="1" width="15.5723684210526" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.3552631578947" style="9" customWidth="1"/>
     <col min="3" max="3" width="28.0657894736842" customWidth="1"/>
     <col min="4" max="4" width="35.3552631578947" style="2" customWidth="1"/>
     <col min="5" max="5" width="38.5723684210526" customWidth="1"/>
@@ -3508,79 +3519,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" ht="18" spans="3:7">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="32" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" ht="17.6" spans="3:5">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="33"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" ht="53" spans="3:6">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="35" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -3588,56 +3599,56 @@
       </c>
     </row>
     <row r="10" ht="51" spans="3:5">
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="71" spans="3:5">
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="34" t="s">
+      <c r="E11" s="35" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" ht="18" spans="3:5">
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="36" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" ht="17.6" spans="3:5">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" ht="17.6" spans="3:5">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="33"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" ht="36" spans="3:5">
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3647,30 +3658,30 @@
       </c>
     </row>
     <row r="19" ht="18" spans="3:5">
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" ht="18" spans="3:4">
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" ht="18" spans="3:4">
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" ht="18" spans="3:4">
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3678,7 +3689,7 @@
       </c>
     </row>
     <row r="23" ht="18" spans="3:4">
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -3686,25 +3697,25 @@
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" ht="33" spans="3:3">
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="27" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3727,10 +3738,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -3814,7 +3825,7 @@
       <c r="N7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P7" t="s">
@@ -3822,7 +3833,7 @@
       </c>
     </row>
     <row r="8" spans="5:16">
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>66</v>
       </c>
       <c r="F8" t="s">
@@ -4163,147 +4174,198 @@
         <v>75</v>
       </c>
     </row>
+    <row r="17" spans="5:16">
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="2">
+        <v>10</v>
+      </c>
+      <c r="O17">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="5:8">
       <c r="E20" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" ref="F20:F28" si="0">E8</f>
+        <f t="shared" ref="F20:F29" si="0">E8</f>
         <v>fd_report-8</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="5:8">
       <c r="E21" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="5:8">
       <c r="E22" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="5:8">
       <c r="E23" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-11</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="5:8">
       <c r="E24" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="5:8">
       <c r="E25" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-13</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="5:8">
       <c r="E26" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-14</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="5:8">
       <c r="E27" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="5:8">
       <c r="E28" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>fd_report-16</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" spans="5:8">
+      <c r="E29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>fd_report-17</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -2187,9 +2187,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2281,69 +2281,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,6 +2310,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -2380,45 +2416,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2500,7 +2500,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,13 +2572,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2530,7 +2644,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2542,145 +2668,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2796,17 +2796,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2835,11 +2844,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2856,30 +2871,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2888,145 +2888,145 @@
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3496,7 +3496,7 @@
   <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3740,8 +3740,8 @@
   <sheetPr/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -4238,7 +4238,7 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="5:8">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="6" t="s">
         <v>147</v>
       </c>
       <c r="F20" t="str">

--- a/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/hzero_platform/agile-fd-report.xlsx
@@ -1935,34 +1935,34 @@
     <t>fd_report-8</t>
   </si>
   <si>
+    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NHB4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg0IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAyPC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiYDmnInmiqXooajvvI3nh4PlsL3lm74iIHRyYW5zZm9ybT0idHJhbnNsYXRlKC00OC4wMDAwMDAsIC00Mi4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIj4KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNDMuMTgzNjczNSIgeT0iMCIgd2lkdGg9IjI0LjQwODE2MzMiIGhlaWdodD0iMTA2IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjEwNS4xNDI4NTciIHk9IjAiIHdpZHRoPSIyNC40MDgxNjMzIiBoZWlnaHQ9IjEwNiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuOTM4Nzc1NTEsMTA1IEwxODMuMzg5NTg1LDEwNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw3OSBMMTgzLjIyNTQwNSw3OSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw1MyBMMTgzLjIyNTQwNSw1MyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwyNyBMMTgzLjIyNTQwNSwyNyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwxIEwxODMuMjI1NDA1LDEiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTUuNzg2NDM5NTMsMy41MzE5MTQ4OSBMMTc3LjI4NzQxNCwxMDIuNDY4MDg1IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNy4yNTc2MTg3NCw1IEw0NS4wMzk3NjQ0LDEzLjg1MDQwNDcgQzQ1LjU3ODkyMTcsMTMuOTc2NzAxNSA0Ni4wNDE1ODUsMTQuMzIwODgyNiA0Ni4zMTc1NTM5LDE0LjgwMDk2ODcgTDY2LjU4MTczODMsNTAuMDUzMzIxNSBDNjcuMDExNjk4NSw1MC44MDEyOTY3IDY3Ljg3MjgzNzQsNTEuMTg5MjU1IDY4LjcxNzk1MjYsNTEuMDE1NzIzOSBMMTEyLjMzMjI4Myw0Mi4wNjAyMDMgQzExMy4yNzYyMSw0MS44NjYzODIyIDExNC4yMjQxNDIsNDIuMzczMjA5OCAxMTQuNTg3MTg3LDQzLjI2NTgyNjEgTDEzNi40NzM4MzcsOTcuMDc4Mjg5NSBDMTM2Ljc0MjQ0LDk3LjczODY5ODggMTM3LjM0MjI4Nyw5OC4yMDYxOTAyIDEzOC4wNDgzMDEsOTguMzA1MzQ4MyBMMTc4LjU5NDY3NCwxMDQiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
+  </si>
+  <si>
+    <t>burndown</t>
+  </si>
+  <si>
+    <t>燃尽图</t>
+  </si>
+  <si>
+    <t>Burndown Chart</t>
+  </si>
+  <si>
+    <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
+  </si>
+  <si>
+    <t>Track the total work remaining and project the likelihood of achieving the sprint goal. This helps your team manage its progress and respond accordingly.</t>
+  </si>
+  <si>
+    <t>/agile/charts/burndownchart</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>fd_report-9</t>
+  </si>
+  <si>
     <t>敏捷报表</t>
-  </si>
-  <si>
-    <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NHB4IiBoZWlnaHQ9IjEwNnB4IiB2aWV3Qm94PSIwIDAgMTg0IDEwNiIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCAyPC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlN5bWJvbHMiIHN0cm9rZT0ibm9uZSIgc3Ryb2tlLXdpZHRoPSIxIiBmaWxsPSJub25lIiBmaWxsLXJ1bGU9ImV2ZW5vZGQiPgogICAgICAgIDxnIGlkPSLmiYDmnInmiqXooajvvI3nh4PlsL3lm74iIHRyYW5zZm9ybT0idHJhbnNsYXRlKC00OC4wMDAwMDAsIC00Mi4wMDAwMDApIj4KICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIj4KICAgICAgICAgICAgICAgIDxnIHRyYW5zZm9ybT0idHJhbnNsYXRlKDMwLjAwMDAwMCwgMTguMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwLTIiIHRyYW5zZm9ybT0idHJhbnNsYXRlKDE4LjAwMDAwMCwgMjQuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNDMuMTgzNjczNSIgeT0iMCIgd2lkdGg9IjI0LjQwODE2MzMiIGhlaWdodD0iMTA2IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjEwNS4xNDI4NTciIHk9IjAiIHdpZHRoPSIyNC40MDgxNjMzIiBoZWlnaHQ9IjEwNiIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuOTM4Nzc1NTEsMTA1IEwxODMuMzg5NTg1LDEwNSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw3OSBMMTgzLjIyNTQwNSw3OSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCw1MyBMMTgzLjIyNTQwNSw1MyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwyNyBMMTgzLjIyNTQwNSwyNyIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC43NzQ1OTUwNCwxIEwxODMuMjI1NDA1LDEiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTUuNzg2NDM5NTMsMy41MzE5MTQ4OSBMMTc3LjI4NzQxNCwxMDIuNDY4MDg1IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNNy4yNTc2MTg3NCw1IEw0NS4wMzk3NjQ0LDEzLjg1MDQwNDcgQzQ1LjU3ODkyMTcsMTMuOTc2NzAxNSA0Ni4wNDE1ODUsMTQuMzIwODgyNiA0Ni4zMTc1NTM5LDE0LjgwMDk2ODcgTDY2LjU4MTczODMsNTAuMDUzMzIxNSBDNjcuMDExNjk4NSw1MC44MDEyOTY3IDY3Ljg3MjgzNzQsNTEuMTg5MjU1IDY4LjcxNzk1MjYsNTEuMDE1NzIzOSBMMTEyLjMzMjI4Myw0Mi4wNjAyMDMgQzExMy4yNzYyMSw0MS44NjYzODIyIDExNC4yMjQxNDIsNDIuMzczMjA5OCAxMTQuNTg3MTg3LDQzLjI2NTgyNjEgTDEzNi40NzM4MzcsOTcuMDc4Mjg5NSBDMTM2Ljc0MjQ0LDk3LjczODY5ODggMTM3LjM0MjI4Nyw5OC4yMDYxOTAyIDEzOC4wNDgzMDEsOTguMzA1MzQ4MyBMMTc4LjU5NDY3NCwxMDQiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICAgICAgPC9nPgogICAgICAgICAgICA8L2c+CiAgICAgICAgPC9nPgogICAgPC9nPgo8L3N2Zz4=</t>
-  </si>
-  <si>
-    <t>burndown</t>
-  </si>
-  <si>
-    <t>燃尽图</t>
-  </si>
-  <si>
-    <t>Burndown Chart</t>
-  </si>
-  <si>
-    <t>跟踪记录项目工作的剩余情况，这有助于在团队管理方面取得更进一步的掌控与把握。</t>
-  </si>
-  <si>
-    <t>Track the total work remaining and project the likelihood of achieving the sprint goal. This helps your team manage its progress and respond accordingly.</t>
-  </si>
-  <si>
-    <t>/agile/charts/burndownchart</t>
-  </si>
-  <si>
-    <t>agile</t>
-  </si>
-  <si>
-    <t>fd_report-9</t>
   </si>
   <si>
     <t>data:image/svg+xml;base64,PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0iVVRGLTgiIHN0YW5kYWxvbmU9Im5vIj8+Cjxzdmcgd2lkdGg9IjE4NXB4IiBoZWlnaHQ9IjEwN3B4IiB2aWV3Qm94PSIwIDAgMTg1IDEwNyIgdmVyc2lvbj0iMS4xIiB4bWxucz0iaHR0cDovL3d3dy53My5vcmcvMjAwMC9zdmciIHhtbG5zOnhsaW5rPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5L3hsaW5rIj4KICAgIDwhLS0gR2VuZXJhdG9yOiBTa2V0Y2ggNDkgKDUxMDAyKSAtIGh0dHA6Ly93d3cuYm9oZW1pYW5jb2RpbmcuY29tL3NrZXRjaCAtLT4KICAgIDx0aXRsZT5Hcm91cCA4PC90aXRsZT4KICAgIDxkZXNjPkNyZWF0ZWQgd2l0aCBTa2V0Y2guPC9kZXNjPgogICAgPGRlZnM+PC9kZWZzPgogICAgPGcgaWQ9IlBhZ2UtMSIgc3Ryb2tlPSJub25lIiBzdHJva2Utd2lkdGg9IjEiIGZpbGw9Im5vbmUiIGZpbGwtcnVsZT0iZXZlbm9kZCI+CiAgICAgICAgPGcgaWQ9IuaKpeWRiu+8jeaJgOacieaKpeihqCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoLTYyNS4wMDAwMDAsIC0yNzkuMDAwMDAwKSI+CiAgICAgICAgICAgIDxnIGlkPSJHcm91cC01IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgyNzQuMDAwMDAwLCAxMzIuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICA8ZyBpZD0i5omA5pyJ5oql6KGo77yN54eD5bC95Zu+IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMDQuMDAwMDAwLCAxMDYuMDAwMDAwKSI+CiAgICAgICAgICAgICAgICAgICAgPGcgaWQ9Ikdyb3VwIiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgzMC4wMDAwMDAsIDE4LjAwMDAwMCkiPgogICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iR3JvdXAtOCIgdHJhbnNmb3JtPSJ0cmFuc2xhdGUoMTguMDAwMDAwLCAyNC4wMDAwMDApIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgNjYuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgODIuMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC02IiB0cmFuc2Zvcm09InRyYW5zbGF0ZSgwLjAwMDAwMCwgOTguMDAwMDAwKSIgZmlsbD0iIzAwMDAwMCIgZmlsbC1vcGFjaXR5PSIwLjA4Ij4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8ZyBpZD0iUmVjdGFuZ2xlLTQiPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIwIiB5PSIwIiB3aWR0aD0iODAiIGhlaWdodD0iOCIgcng9IjQiPjwvcmVjdD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHJlY3QgeD0iOTAiIHk9IjAiIHdpZHRoPSI0MCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCB4PSIxNDAiIHk9IjAiIHdpZHRoPSI0NCIgaGVpZ2h0PSI4IiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxnIGlkPSJHcm91cC0yIj4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cmVjdCBpZD0iUmVjdGFuZ2xlLTIiIGZpbGw9IiNGM0YzRjMiIHg9IjIzLjQxMzM5OTIiIHk9IjAiIHdpZHRoPSIxMy4yMzM2NjA0IiBoZWlnaHQ9IjUwIiByeD0iNCI+PC9yZWN0PgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxyZWN0IGlkPSJSZWN0YW5nbGUtMiIgZmlsbD0iI0YzRjNGMyIgeD0iNTcuMDA2NTM3MiIgeT0iMCIgd2lkdGg9IjEzLjIzMzY2MDQiIGhlaWdodD0iNTAiIHJ4PSI0Ij48L3JlY3Q+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuNTA4OTg2OTM5LDQ5LjUyODMwMTkgTDk5LjQzMDQ4NDQsNDkuNTI4MzAxOSIgaWQ9IkxpbmUiIHN0cm9rZT0iI0RGREZERiIgc3Ryb2tlLWxpbmVjYXA9InNxdWFyZSI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0wLjQxOTk3MTI4NiwzNy4yNjQxNTA5IEw5OS4zNDE0Njg3LDM3LjI2NDE1MDkiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC40MTk5NzEyODYsMjUgTDk5LjM0MTQ2ODcsMjUiIGlkPSJMaW5lIiBzdHJva2U9IiNERkRGREYiIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiPjwvcGF0aD4KICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICA8cGF0aCBkPSJNMC40MTk5NzEyODYsMTIuNzM1ODQ5MSBMOTkuMzQxNDY4NywxMi43MzU4NDkxIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTAuNDE5OTcxMjg2LDAuNDcxNjk4MTEzIEw5OS4zNDE0Njg3LDAuNDcxNjk4MTEzIiBpZD0iTGluZSIgc3Ryb2tlPSIjREZERkRGIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPHBhdGggZD0iTTMuMTM3MzAxODUsMS42NjU5OTc1OSBMOTYuMTIxOTk4Niw0OC4zMzQwMDI0IiBpZD0iTGluZS0yIiBzdHJva2U9IiM5Nzk3OTciIHN0cm9rZS1saW5lY2FwPSJzcXVhcmUiIHN0cm9rZS1kYXNoYXJyYXk9IjMsMyI+PC9wYXRoPgogICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgIDxwYXRoIGQ9Ik0zLjkzNDk0ODM1LDIuMzU4NDkwNTcgTDI0LjA2NTY5MTMsNi40NjEwNTY1IEMyNC41ODU3NjQyLDYuNTY3MDQ1MzEgMjUuMDQyMzc5LDYuODc1NDEzNTIgMjUuMzM0OTY5OCw3LjMxODI0NTQgTDM1Ljc2NDcwMTgsMjMuMTAzNDkyNSBDMzYuMjA0ODU4OCwyMy43Njk2NjM2IDM2Ljk5OTA3MDMsMjQuMTEwMjA4MSAzNy43ODUwNzY5LDIzLjk2OTc5NTEgTDYwLjI3NDc1ODYsMTkuOTUyMjE4MiBDNjEuMTY2NzkxMiwxOS43OTI4NjQ3IDYyLjA1NDUwNTEsMjAuMjUzMTY1MyA2Mi40MzgyNjMsMjEuMDc0MDQ2MyBMNzMuNzU5NTk5MSw0NS4yOTEwNTYgQzc0LjA1MTU0ODYsNDUuOTE1NTUzMyA3NC42NDQ1MzM2LDQ2LjM0NTY3NTMgNzUuMzI4ODE0NSw0Ni40MjkyODczIEw5Ni44MzA3NzA4LDQ5LjA1NjYwMzgiIGlkPSJMaW5lLTMiIHN0cm9rZT0iI0Y0NDMzNiIgc3Ryb2tlLXdpZHRoPSIyIiBzdHJva2UtbGluZWNhcD0ic3F1YXJlIj48L3BhdGg+CiAgICAgICAgICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICAgICAgICAgIDwvZz4KICAgICAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgICAgICA8L2c+CiAgICAgICAgICAgIDwvZz4KICAgICAgICA8L2c+CiAgICA8L2c+Cjwvc3ZnPg==</t>
@@ -2186,10 +2186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2274,7 +2274,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2282,21 +2290,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2310,77 +2303,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2401,13 +2333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2418,7 +2343,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2506,31 +2506,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2542,7 +2542,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2554,19 +2590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,31 +2614,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2620,19 +2650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2644,43 +2662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2790,41 +2790,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2840,21 +2807,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2884,152 +2836,200 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3741,7 +3741,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.2"/>
@@ -3836,29 +3836,27 @@
       <c r="E8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8"/>
+      <c r="G8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" t="s">
         <v>68</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>69</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" t="s">
         <v>73</v>
-      </c>
-      <c r="M8" t="s">
-        <v>74</v>
       </c>
       <c r="N8" s="2">
         <v>10</v>
@@ -3867,15 +3865,15 @@
         <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="5:16">
       <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" t="s">
-        <v>67</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>77</v>
@@ -3905,7 +3903,7 @@
         <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="5:16">
@@ -3913,7 +3911,7 @@
         <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>85</v>
@@ -3943,7 +3941,7 @@
         <v>20</v>
       </c>
       <c r="P10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="5:16">
@@ -3951,7 +3949,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>93</v>
@@ -3981,7 +3979,7 @@
         <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="5:16">
@@ -3989,7 +3987,7 @@
         <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>101</v>
@@ -4019,7 +4017,7 @@
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="5:16">
@@ -4027,7 +4025,7 @@
         <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>109</v>
@@ -4057,7 +4055,7 @@
         <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="5:16">
@@ -4065,7 +4063,7 @@
         <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>117</v>
@@ -4095,7 +4093,7 @@
         <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="5:16">
@@ -4103,7 +4101,7 @@
         <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>125</v>
@@ -4133,7 +4131,7 @@
         <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="5:16">
@@ -4141,7 +4139,7 @@
         <v>132</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>133</v>
@@ -4171,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="P16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="5:16">
@@ -4179,28 +4177,28 @@
         <v>140</v>
       </c>
       <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>69</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>70</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" t="s">
         <v>73</v>
-      </c>
-      <c r="M17" t="s">
-        <v>74</v>
       </c>
       <c r="N17" s="2">
         <v>10</v>
@@ -4209,7 +4207,7 @@
         <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:13">
